--- a/metadata/EPI_EIR/EPI_EIR_TRK_V1.1.0_DHIS2.35/reference.xlsx
+++ b/metadata/EPI_EIR/EPI_EIR_TRK_V1.1.0_DHIS2.35/reference.xlsx
@@ -452,7 +452,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +476,7 @@
         <v>Type</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TRACKER</v>
+        <v>TRK</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>.0.0</v>
+        <v>1.1.1</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2.35.6</v>
+        <v>2.35.8-EMBARGOED</v>
       </c>
     </row>
     <row r="6">
@@ -500,7 +500,7 @@
         <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>9979080</v>
+        <v>fadb272</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>20211004T125604</v>
+        <v>20211026T114821</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>Name</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>EPI_EIR_TRK_1.0.0_DHIS2.35.6-en</v>
+        <v>EPI_EIR_TRK_1.1.1_DHIS2.35.8-EMBARGOED-en</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +959,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="544.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -992,16 +992,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>EIR - BCG 0.05mL</v>
+        <v>EIR - Batch/lot number (Vaccine 1)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>BCG_0.05</v>
+        <v>EPI - Batch/lot number (Vaccine 1)</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
@@ -1010,21 +1010,21 @@
         <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bpBUOvqy1Jn</v>
+        <v>fQkHPYnrdzg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>EIR - BCG 0.1mL</v>
+        <v>EIR - Batch/lot number (Vaccine 2)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>BCG_0.1</v>
+        <v>EPI - Batch/lot number (Vaccine 2)</v>
       </c>
       <c r="C3" s="5" t="str">
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
@@ -1033,21 +1033,21 @@
         <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>zSugskT1NC7</v>
+        <v>Dqp54QciwV7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>EIR - BCG not given</v>
+        <v>EIR - Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>BCG not given</v>
+        <v>EPI - Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v/>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
@@ -1056,21 +1056,21 @@
         <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>LTdvha8zapG</v>
+        <v>ltxO9JBUR2j</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>EIR - Birth registration date</v>
+        <v>EIR - Batch/lot number (Vaccine 4)</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Birth registration date</v>
+        <v>EPI - Batch/lot number (Vaccine 4)</v>
       </c>
       <c r="C5" s="5" t="str">
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v/>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
@@ -1079,21 +1079,21 @@
         <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>vbqDtmenuL0</v>
+        <v>tI1ZKSX3fNF</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>EIR - bOPV 0</v>
+        <v>EIR - BCG 0.1mL</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>bOPV 0</v>
+        <v>BCG_0.1</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>bOPV (Bivalent oral polo vaccine). 1 dose. At birth/as soon after birth as possible</v>
+        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
@@ -1102,7 +1102,7 @@
         <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>no7SkAxepi7</v>
+        <v>zSugskT1NC7</v>
       </c>
     </row>
     <row r="7">
@@ -1130,10 +1130,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>EIR - bOPV 2</v>
+        <v>EIR - bOPV 3</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>bOPV 2</v>
+        <v>bOPV 3</v>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
@@ -1148,21 +1148,21 @@
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>sDORmAKh32v</v>
+        <v>nQeUfqPjK5o</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>EIR - bOPV 3</v>
+        <v>EIR - Cholera 1</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>bOPV 3</v>
+        <v>Cholera 1</v>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>default</v>
@@ -1171,21 +1171,21 @@
         <v/>
       </c>
       <c r="G9" s="5" t="str">
-        <v>nQeUfqPjK5o</v>
+        <v>K2kqY4vlUEb</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EIR - bOPV 4</v>
+        <v>EIR - Cholera 3</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>bOPV 4</v>
+        <v>Cholera 3</v>
       </c>
       <c r="C10" s="4" t="str">
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>default</v>
@@ -1194,15 +1194,15 @@
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>cNA9EmFaiAa</v>
+        <v>bUuGVhio829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>EIR - Cholera 1</v>
+        <v>EIR - Congenital anomaly</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Cholera 1</v>
+        <v>EPI - Congenital anomaly</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
@@ -1217,15 +1217,15 @@
         <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>K2kqY4vlUEb</v>
+        <v>d9xTkfCi5ge</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>EIR - Cholera 2</v>
+        <v>EIR - Doses Distributed to Patients</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Cholera 2</v>
+        <v>EPI - Doses Distributed to Patients</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
@@ -1240,21 +1240,21 @@
         <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>xeWDz9py2Px</v>
+        <v>jGYGY934OJa</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>EIR - Cholera 3</v>
+        <v>EIR - DPT (Booster) 1</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Cholera 3</v>
+        <v>DPT (Booster) 1</v>
       </c>
       <c r="C13" s="5" t="str">
         <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v/>
+        <v>DTP (Diphtheria-Tetanus-Pertussis). 3 doses. As early as 6 weeks; 4 weeks minimum interval between doses. If possible completed by 6 months of age. 3 Booster doses: 12-23 months, 4-7 years, 9-15 years; with minimum 4 year interval between doses</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
@@ -1263,21 +1263,21 @@
         <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>bUuGVhio829</v>
+        <v>zh5oKBRevny</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>EIR - Dengue 1</v>
+        <v>EIR - Expiry date (Vaccine 1)</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Dengue 1</v>
+        <v>EPI - Expiry date</v>
       </c>
       <c r="C14" s="4" t="str">
         <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v/>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
@@ -1286,21 +1286,21 @@
         <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>FNF2ZFECX8O</v>
+        <v>CKlN0nulXGh</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>EIR - Dengue 2</v>
+        <v>EIR - Expiry date (Vaccine 3)</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Dengue 2</v>
+        <v>EPI - Expiry date (Vaccine 3)</v>
       </c>
       <c r="C15" s="5" t="str">
         <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v/>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
@@ -1309,15 +1309,15 @@
         <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>kWliwRfbRVN</v>
+        <v>ij0GuU5qVHT</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>EIR - Dengue 3</v>
+        <v>EIR - Has the birth certificate been delivered to the parents?</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Dengue 3</v>
+        <v>Birth Certificate delivered?</v>
       </c>
       <c r="C16" s="4" t="str">
         <v/>
@@ -1332,21 +1332,21 @@
         <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>MBScslhG7ci</v>
+        <v>bJykvtIiw4q</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
+        <v>EIR - Hepatitis B 1</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Diagnosed with HIV or severe Immunodeficiency</v>
+        <v>Hepatitis B 1</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>Diagnosed with HIV or severe immunodeficiency (immunization program)</v>
+        <v>Hep B (Hepatitis B) protects against a viral infection that attacks the liver. 1 monovalent dose. Given at birth. If not given at birth can be given as soon after birth as possible.</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
@@ -1355,21 +1355,21 @@
         <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>ptgXqqoq8pf</v>
+        <v>qEtgKXZlMLE</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>EIR - DPT (Booster) 1</v>
+        <v>EIR - Hepatitis B not given</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>DPT (Booster) 1</v>
+        <v>Hepatitis B not given</v>
       </c>
       <c r="C18" s="4" t="str">
         <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <v>DTP (Diphtheria-Tetanus-Pertussis). 3 doses. As early as 6 weeks; 4 weeks minimum interval between doses. If possible completed by 6 months of age. 3 Booster doses: 12-23 months, 4-7 years, 9-15 years; with minimum 4 year interval between doses</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>default</v>
@@ -1378,15 +1378,15 @@
         <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>zh5oKBRevny</v>
+        <v>ZAUEcf9D941</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EIR - DTap (Td containing) 1</v>
+        <v>EIR - History of Anaphylactic reaction</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>DTap (Td containing) 1</v>
+        <v>History of Anaphylactic reaction</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
@@ -1401,15 +1401,15 @@
         <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>xmWFhjl9gE1</v>
+        <v>UnXfP6q3uOp</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EIR - DTwP (Td containing) 1</v>
+        <v>EIR - Hospitalization</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>DTwP (Td containing) 1</v>
+        <v>EPI - Hospitalization</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
@@ -1424,15 +1424,15 @@
         <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>LauCl9aicLX</v>
+        <v>aLzZB7UYZXA</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>EIR - Has the birth certificate been delivered to the parents?</v>
+        <v>EIR - HPV 1</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Birth Certificate delivered?</v>
+        <v>HPV 1</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
@@ -1447,15 +1447,15 @@
         <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>bJykvtIiw4q</v>
+        <v>ZYsq1NLl1Vu</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>EIR - Has the CRVS system been notified?</v>
+        <v>EIR - IPV 2</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>CRVS system notified?</v>
+        <v>IPV 2</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -1470,15 +1470,15 @@
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>DIxeC5ujXw0</v>
+        <v>NxVIX3mIhGt</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>EIR - Hepatitis A 1</v>
+        <v>EIR - IPV 3</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Hepatitis A 1</v>
+        <v>IPV 3</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -1493,21 +1493,21 @@
         <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>FAQpFjSoDca</v>
+        <v>J0dqTnGzX6T</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>EIR - Hepatitis B 1</v>
+        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Hepatitis B 1</v>
+        <v>Japanese Encephalitis1(Inact vero cell-derived)</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>Hep B (Hepatitis B) protects against a viral infection that attacks the liver. 1 monovalent dose. Given at birth. If not given at birth can be given as soon after birth as possible.</v>
+        <v>(Inactivated vero cell-derived)</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
@@ -1516,21 +1516,21 @@
         <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>qEtgKXZlMLE</v>
+        <v>Y32nZNHfldk</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>EIR - Hepatitis B 2</v>
+        <v>EIR - Japanese Encephalitis 2 (Live Attenuated)</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Hepatitis B 2</v>
+        <v>Japanese Encephalitis 2 (Live Attenuated)</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>Hep B (Hepatitis B). 3 doses. At birth/As soon after birth as possible; 4 weeks minimum interval between doses</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <v>default</v>
@@ -1539,21 +1539,21 @@
         <v/>
       </c>
       <c r="G25" s="5" t="str">
-        <v>AstoeChIWIN</v>
+        <v>ZZdARL1ILIy</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>EIR - Hepatitis B 3</v>
+        <v>EIR - List reactions</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hepatitis B 3</v>
+        <v>List reactions</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Hep B (Hepatitis B). 3 doses. At birth/As soon after birth as possible; 4 weeks minimum interval between doses</v>
+        <v>List reactions (Immunization)</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>default</v>
@@ -1562,15 +1562,15 @@
         <v/>
       </c>
       <c r="G26" s="4" t="str">
-        <v>Iiw3GMEbEAB</v>
+        <v>HGjbAPoyEBu</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>EIR - Hepatitis B not given</v>
+        <v>EIR - Malaise</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Hepatitis B not given</v>
+        <v>EPI - Malaise</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -1585,21 +1585,21 @@
         <v/>
       </c>
       <c r="G27" s="5" t="str">
-        <v>ZAUEcf9D941</v>
+        <v>OxhZdhpFPd9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>EIR - History of Anaphylactic reaction</v>
+        <v>EIR - Measles 2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>History of Anaphylactic reaction</v>
+        <v>Measles 2</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v/>
+        <v>Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>default</v>
@@ -1608,15 +1608,15 @@
         <v/>
       </c>
       <c r="G28" s="4" t="str">
-        <v>UnXfP6q3uOp</v>
+        <v>Bxh1xgIY9nA</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>EIR - HPV 1</v>
+        <v>EIR - Measles not given</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>HPV 1</v>
+        <v>Measles not given</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -1631,15 +1631,15 @@
         <v/>
       </c>
       <c r="G29" s="5" t="str">
-        <v>ZYsq1NLl1Vu</v>
+        <v>n4qKY8vxc7V</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>EIR - HPV 2</v>
+        <v>EIR - Meningococcal 2</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>HPV 2</v>
+        <v>Meningococcal 2</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -1654,21 +1654,21 @@
         <v/>
       </c>
       <c r="G30" s="4" t="str">
-        <v>IiLBbswLevW</v>
+        <v>qjMV4moz3Ql</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>EIR - IPV 1</v>
+        <v>EIR - MMR1</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>IPV 1</v>
+        <v>MMR1</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>IPV (Inactivated poliovirus) protects against polo, which is a highly infectious viral disease that can cause irreversible paralysis. The IPV 1 dose is to be given at 14 weeks of age or later. IPV can be given together with a bOPV dose.</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
         <v>default</v>
@@ -1677,15 +1677,15 @@
         <v/>
       </c>
       <c r="G31" s="5" t="str">
-        <v>Fu83xQ4NKuQ</v>
+        <v>wpadSrcnZsO</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>EIR - IPV 2</v>
+        <v>EIR - MMR2</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>IPV 2</v>
+        <v>MMR2</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -1700,21 +1700,21 @@
         <v/>
       </c>
       <c r="G32" s="4" t="str">
-        <v>NxVIX3mIhGt</v>
+        <v>erxkQb95nXx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>EIR - IPV 3</v>
+        <v>EIR - mOPV</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>IPV 3</v>
+        <v>mOPV</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>default</v>
@@ -1723,15 +1723,15 @@
         <v/>
       </c>
       <c r="G33" s="5" t="str">
-        <v>J0dqTnGzX6T</v>
+        <v>VkegZmJsUS8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>EIR - IPV 4 (Booster dose)</v>
+        <v>EIR - MR1</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>IPV 4 (Booster dose)</v>
+        <v>MR1</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -1746,15 +1746,15 @@
         <v/>
       </c>
       <c r="G34" s="4" t="str">
-        <v>OWolh3WKA3Q</v>
+        <v>OKhx1HFPhRs</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>EIR - IPV not given</v>
+        <v>EIR - Nonserious adverse event following immunization</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>IPV not given</v>
+        <v>Non-serious AEFI</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -1769,21 +1769,21 @@
         <v/>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Zm4v8CQIXyj</v>
+        <v>WrnBsYluDf4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
+        <v>EIR - PCV 3</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Japanese Encephalitis1(Inact vero cell-derived)</v>
+        <v>PCV 3</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>(Inactivated vero cell-derived)</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <v>default</v>
@@ -1792,15 +1792,15 @@
         <v/>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Y32nZNHfldk</v>
+        <v>B4eJCy6LFLZ</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>EIR - PCV not given</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>PCV not given</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -1815,21 +1815,21 @@
         <v/>
       </c>
       <c r="G37" s="5" t="str">
-        <v>eRFH94ocxrD</v>
+        <v>fyvXreKLZNn</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Japanese Encephalitis2(Inact vero cell-derived)</v>
+        <v>Pentavalent (DPT-HepB-Hib) 3</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>(Inactivated vero cell-derived)</v>
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>default</v>
@@ -1838,15 +1838,15 @@
         <v/>
       </c>
       <c r="G38" s="4" t="str">
-        <v>LXivmI7ZAT8</v>
+        <v>pxCZNoqDVJC</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Live Attenuated)</v>
+        <v>EIR - Pentavalent not given</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Japanese Encephalitis 2 (Live Attenuated)</v>
+        <v>Pentavalent not given</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -1861,21 +1861,21 @@
         <v/>
       </c>
       <c r="G39" s="5" t="str">
-        <v>ZZdARL1ILIy</v>
+        <v>LQVqn0ghg99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>EIR - List reactions</v>
+        <v>EIR - Persistent or significant disability</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>List reactions</v>
+        <v>EPI - Persistent or significant disability</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>List reactions (Immunization)</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <v>default</v>
@@ -1884,1841 +1884,1841 @@
         <v/>
       </c>
       <c r="G40" s="4" t="str">
-        <v>HGjbAPoyEBu</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
+        <v>RJVYDrodCWP</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="5" t="str">
+        <v>EIR - Rabies 2</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>Rabies 2</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E41" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G41" s="5" t="str">
+        <v>Py5GHJS2tdN</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <v>EIR - Redness</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>EPI - Redness</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>Local reaction at the vaccine site; redness</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G42" s="4" t="str">
+        <v>TR57DWCiusw</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="str">
+        <v>EIR - Rubella 1</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v>Rubella 1</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>Rubella. 1 dose. 9 or 12 months with containing measles vaccine. As a general rule, live vaccines should be given either simultaneously, or at least 4 weeks apart. Oral polio vaccine is the exception and can be given any time before or after RCA. Interference may occur between MMR and yellow fever vaccines if they are simultaneously administered to children &lt; 2 years of age. If the child has received blood products &lt;3 months, postpone vaccination. If possible receiving blood products should be avoided for up to 2 weeks post vaccination.</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G43" s="5" t="str">
+        <v>q7KhhAnm5GA</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>EIR - RV 2 (Rotarix)</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>RV 2 (Rotarix)</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G44" s="4" t="str">
+        <v>wYg2gOWSyJG</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>EIR - RV 2 (Rota Teq)</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>RV 2 (Rota Teq)</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G45" s="5" t="str">
+        <v>knh2BOb3F0I</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>EIR - RV 3 (Rota Teq)</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>RV 3 (Rota Teq)</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G46" s="4" t="str">
+        <v>xMkkGCwSaDK</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>EIR - RV not given</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>RV not given</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G47" s="5" t="str">
+        <v>irQPcNG21Uf</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v>EIR - Serious adverse event following immunization</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>EPI - Serious adverse event following immunization</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G48" s="4" t="str">
+        <v>oxa7COsVggZ</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
+        <v>EIR - Show All immunization doses (explanation)</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>Show all doses_Explain</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>Must enter at least 5 characters to show all doses.</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G49" s="5" t="str">
+        <v>eZnkuQCWjgf</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>EIR - Tick-Borne Encephalitis 1</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Tick-Borne Encephalitis 1</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v>fXpONYiBkKo</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>EIR - Typhoid TCV (Typbar) 1</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Typhoid TCV (Typbar) 1</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v>moK8t0dksIq</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>EIR - Typhoid (Ty21a) 1</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Typhoid (Ty21a) 1</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v>HLwoyFyqcG0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>EIR - Typhoid (Ty21a) 2</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>Typhoid (Ty21a) 2</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v>UGx2U7O5gXY</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>EIR - Typhoid (Ty21a) 3</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Typhoid (Ty21a) 3</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v>GF2axG9TnnA</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>EIR - Typhoid (Ty21a) 4</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Typhoid (Ty21a) 4</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v>nqc2S6wDOI8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>EIR - Update HIV status and Anaphylaxis history</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>HIV status and Anaphylaxis history</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="4" t="str">
+        <v>LoaA9ETgadk</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
+        <v>EIR - Vaccination 2 date</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>EIR - Vaccination 2 date</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>Date when the vaccine was administered</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G57" s="5" t="str">
+        <v>aTtk7QAT522</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <v>EIR - Vaccination 4 date</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>EIR - Vaccination 4 date</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>Date when the vaccine was administered</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G58" s="4" t="str">
+        <v>MfmRCIAITnO</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>EIR - Vaccine 1 name</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>EPI - Vaccine 1 name</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G59" s="5" t="str">
+        <v>PbvYJpzsn0f</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>EIR - Vaccine 3 name</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>EPI - Vaccine 3 name</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G60" s="4" t="str">
+        <v>wwLBNaLV0gO</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>EIR - Vaccine 4 name</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>EPI - Vaccine 4 name</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G61" s="5" t="str">
+        <v>Ln1AD3eTpZ5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>EIR - Vaccine Non-Routine Unlock date</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>EPI - Nonroutine Unlock</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G62" s="4" t="str">
+        <v>rpBEImeDflw</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>EIR - Vaccine Schedule Unlock date</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>EPI - Schedule Unlock</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G63" s="5" t="str">
+        <v>Vy2Bgia39T2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>EIR - Vaccine site</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Vaccine site</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G64" s="4" t="str">
+        <v>Rm7PlAz6udF</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>EIR - Vaccine site other</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>Vaccine site other</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G65" s="5" t="str">
+        <v>JaaBL3gg38M</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>EIR - Varicella 1</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>Varicella 1</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G66" s="4" t="str">
+        <v>mF1BqRm4QFB</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>EIR - Varicella 2</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>Varicella 2</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G67" s="5" t="str">
+        <v>ZGzvVwZ8qU8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>EIR - Vials Discarded</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>EPI - Vials Discarded</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G68" s="4" t="str">
+        <v>TIlgxyquUD0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>EIR - Vials on Hand</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>EPI - Vials on Hand</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G69" s="5" t="str">
+        <v>eNl6EKSFbJ0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>EIR - Weakness</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>EPI - Weakness</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G70" s="4" t="str">
+        <v>qrNvkFCiOAQ</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>EIR - Yellow Fever 1</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>Yellow Fever 1</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G71" s="5" t="str">
+        <v>mH9watsYzvq</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>GEN - Attendant at birth</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Attendant at birth</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G72" s="4" t="str">
+        <v>lQtJB35vsDj</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>GEN - Birth type</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Birth type</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>LtlzGAPWWo8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>GEN - Birth weight (grams)</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>Birth weight (grams)</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G74" s="4" t="str">
+        <v>WUquHs0Al7h</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>GEN - Parity</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>Parity</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E75" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G75" s="5" t="str">
+        <v>B5BoWbyB1sY</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>GEN - Place of birth</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>Place of birth</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G76" s="4" t="str">
+        <v>ABhkInP0wGY</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>EIR - BCG 0.05mL</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>BCG_0.05</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v>BCG (bacillus Calmette--Guerin) for high risk of TB (tuberculosis) and leprosy. BCG 1 dose. Given as soon after birth. If not given at birth can be given as soon as possible after birth</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G77" s="5" t="str">
+        <v>bpBUOvqy1Jn</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>EIR - BCG not given</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>BCG not given</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G78" s="4" t="str">
+        <v>LTdvha8zapG</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>EIR - Birth registration date</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>Birth registration date</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G79" s="5" t="str">
+        <v>vbqDtmenuL0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>EIR - bOPV 0</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>bOPV 0</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>bOPV (Bivalent oral polo vaccine). 1 dose. At birth/as soon after birth as possible</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G80" s="4" t="str">
+        <v>no7SkAxepi7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>EIR - bOPV 2</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>bOPV 2</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G81" s="5" t="str">
+        <v>sDORmAKh32v</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>EIR - bOPV 4</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>bOPV 4</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G82" s="4" t="str">
+        <v>cNA9EmFaiAa</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>EIR - Cholera 2</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>Cholera 2</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G83" s="5" t="str">
+        <v>xeWDz9py2Px</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>EIR - Death</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>EPI - Death</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G84" s="4" t="str">
+        <v>nhTULOXIfQ7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>EIR - Dengue 1</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>Dengue 1</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>FNF2ZFECX8O</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>EIR - Dengue 2</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>Dengue 2</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>kWliwRfbRVN</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>EIR - Dengue 3</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>Dengue 3</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G87" s="5" t="str">
+        <v>MBScslhG7ci</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>Diagnosed with HIV or severe Immunodeficiency</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>Diagnosed with HIV or severe immunodeficiency (immunization program)</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G88" s="4" t="str">
+        <v>ptgXqqoq8pf</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>EIR - DTap (Td containing) 1</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>DTap (Td containing) 1</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>xmWFhjl9gE1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>EIR - DTwP (Td containing) 1</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>DTwP (Td containing) 1</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G90" s="4" t="str">
+        <v>LauCl9aicLX</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>EIR - Expiry date (Vaccine 2)</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>EPI - Expiry date (Vaccine 2)</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>The date of expiry for each vaccine</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="5" t="str">
+        <v>lOwMwVEPRLy</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>EIR - Expiry date (Vaccine 4)</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>EPI - Expiry date (Vaccine 4)</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>The date of expiry for each vaccine</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G92" s="4" t="str">
+        <v>SwGVBiNWvVT</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>EIR - Fever</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>EPI - Fever</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>Does the case have fever or not</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>k5CLkBHLSti</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>EIR - Has the CRVS system been notified?</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>CRVS system notified?</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G94" s="4" t="str">
+        <v>DIxeC5ujXw0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>EIR - Hepatitis A 1</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>Hepatitis A 1</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G95" s="5" t="str">
+        <v>FAQpFjSoDca</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>EIR - Hepatitis B 2</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>Hepatitis B 2</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v>Hep B (Hepatitis B). 3 doses. At birth/As soon after birth as possible; 4 weeks minimum interval between doses</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>AstoeChIWIN</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>EIR - Hepatitis B 3</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>Hepatitis B 3</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D97" s="5" t="str">
+        <v>Hep B (Hepatitis B). 3 doses. At birth/As soon after birth as possible; 4 weeks minimum interval between doses</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G97" s="5" t="str">
+        <v>Iiw3GMEbEAB</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>EIR - HPV 2</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>HPV 2</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G98" s="4" t="str">
+        <v>IiLBbswLevW</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>EIR - IPV 1</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>IPV 1</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D99" s="5" t="str">
+        <v>IPV (Inactivated poliovirus) protects against polo, which is a highly infectious viral disease that can cause irreversible paralysis. The IPV 1 dose is to be given at 14 weeks of age or later. IPV can be given together with a bOPV dose.</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G99" s="5" t="str">
+        <v>Fu83xQ4NKuQ</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>EIR - IPV 4 (Booster dose)</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>IPV 4 (Booster dose)</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>OWolh3WKA3Q</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>EIR - IPV not given</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v>IPV not given</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E101" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G101" s="5" t="str">
+        <v>Zm4v8CQIXyj</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>Japanese Encephalitis 1 (Live Attenuated)</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>eRFH94ocxrD</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>Japanese Encephalitis2(Inact vero cell-derived)</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D103" s="5" t="str">
+        <v>(Inactivated vero cell-derived)</v>
+      </c>
+      <c r="E103" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G103" s="5" t="str">
+        <v>LXivmI7ZAT8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>EIR - Life threatening</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>EPI - Life threatening</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>Pw8g8zttkAW</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" s="5" t="str">
         <v>EIR - Measles 0</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B105" s="5" t="str">
         <v>Measles 0</v>
       </c>
-      <c r="C41" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D41" s="5" t="str" xml:space="preserve">
+      <c r="C105" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D105" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.
 SUPPLEMENTARY DOSE IF MEASLES OUTBREAK.</v>
       </c>
-      <c r="E41" s="5" t="str">
+      <c r="E105" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F41" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G41" s="5" t="str">
+      <c r="F105" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G105" s="5" t="str">
         <v>VNWRJ6J4WSc</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="str">
+    <row r="106">
+      <c r="A106" s="4" t="str">
         <v>EIR - Measles 1</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B106" s="4" t="str">
         <v>Measles 1</v>
       </c>
-      <c r="C42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D42" s="4" t="str">
+      <c r="C106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D106" s="4" t="str">
         <v>Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E106" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G42" s="4" t="str">
+      <c r="F106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G106" s="4" t="str">
         <v>g8dMiUOTFla</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="str">
-        <v>EIR - Measles 2</v>
-      </c>
-      <c r="B43" s="5" t="str">
-        <v>Measles 2</v>
-      </c>
-      <c r="C43" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D43" s="5" t="str">
-        <v>Measles. 2 doses. 9-12 months and 15-18 months recommended schedule; 4 weeks minimum interval between doses. This vaccine is contraindicated after a severe allergic reaction (e.g. anaphylaxis) to a previous dose. If the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E43" s="5" t="str">
+    <row r="107">
+      <c r="A107" s="5" t="str">
+        <v>EIR - Meningococcal 1</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <v>Meningococcal 1</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E107" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F43" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G43" s="5" t="str">
-        <v>Bxh1xgIY9nA</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="str">
-        <v>EIR - Measles not given</v>
-      </c>
-      <c r="B44" s="4" t="str">
-        <v>Measles not given</v>
-      </c>
-      <c r="C44" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D44" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E44" s="4" t="str">
+      <c r="F107" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G107" s="5" t="str">
+        <v>W02zBOCKfw6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
+        <v>EIR - MR2</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>MR2</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E108" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F44" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G44" s="4" t="str">
-        <v>n4qKY8vxc7V</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="str">
-        <v>EIR - Meningococcal 1</v>
-      </c>
-      <c r="B45" s="5" t="str">
-        <v>Meningococcal 1</v>
-      </c>
-      <c r="C45" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D45" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E45" s="5" t="str">
+      <c r="F108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>KEakw1ZjmUr</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>EIR - OPV not given</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>OPV not given</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E109" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F45" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G45" s="5" t="str">
-        <v>W02zBOCKfw6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="str">
-        <v>EIR - Meningococcal 2</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <v>Meningococcal 2</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D46" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E46" s="4" t="str">
+      <c r="F109" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>EYQp1U4tU9z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>EIR - Other Signs and symptoms</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>EPI - Other Signs and symptoms</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E110" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F46" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G46" s="4" t="str">
-        <v>qjMV4moz3Ql</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="str">
-        <v>EIR - MMR1</v>
-      </c>
-      <c r="B47" s="5" t="str">
-        <v>MMR1</v>
-      </c>
-      <c r="C47" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D47" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E47" s="5" t="str">
+      <c r="F110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>OwuxWuHerlR</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>EIR - PCV 1</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>PCV 1</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E111" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F47" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G47" s="5" t="str">
-        <v>wpadSrcnZsO</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="str">
-        <v>EIR - MMR2</v>
-      </c>
-      <c r="B48" s="4" t="str">
-        <v>MMR2</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D48" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E48" s="4" t="str">
+      <c r="F111" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G111" s="5" t="str">
+        <v>fmXCCPENnwR</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>EIR - PCV 2</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>PCV 2</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E112" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F48" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G48" s="4" t="str">
-        <v>erxkQb95nXx</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="str">
-        <v>EIR - mOPV</v>
-      </c>
-      <c r="B49" s="5" t="str">
-        <v>mOPV</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D49" s="5" t="str">
-        <v>bOPV (Bivalent oral polo vaccine) 4 doses. As early as 6 weeks; 4 weeks minimum interval between doses.</v>
-      </c>
-      <c r="E49" s="5" t="str">
+      <c r="F112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G112" s="4" t="str">
+        <v>PvHUllrtPiy</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>Pentavalent (DPT-HepB-Hib) 1</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D113" s="5" t="str">
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+      </c>
+      <c r="E113" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G49" s="5" t="str">
-        <v>VkegZmJsUS8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="str">
-        <v>EIR - MR1</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <v>MR1</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D50" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E50" s="4" t="str">
+      <c r="F113" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G113" s="5" t="str">
+        <v>K3TcJM1ySQA</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>Pentavalent (DPT-HepB-Hib) 2</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
+      </c>
+      <c r="E114" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G50" s="4" t="str">
-        <v>OKhx1HFPhRs</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="str">
-        <v>EIR - MR2</v>
-      </c>
-      <c r="B51" s="5" t="str">
-        <v>MR2</v>
-      </c>
-      <c r="C51" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D51" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E51" s="5" t="str">
+      <c r="F114" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>GPOoPDqle3V</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>EIR - Rabies 1</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>Rabies 1</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E115" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F51" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G51" s="5" t="str">
-        <v>KEakw1ZjmUr</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="str">
-        <v>EIR - OPV not given</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <v>OPV not given</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D52" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E52" s="4" t="str">
+      <c r="F115" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>oVlOKPZPaFm</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>Recent infection with a temperature &gt; 39 degree C</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>Be aware, it is advisable to defer PCV Pneumococcal (Conjugate), and Rotavirus vaccinations until after an acute infection with temperature &gt;39 degrees C.</v>
+      </c>
+      <c r="E116" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G52" s="4" t="str">
-        <v>EYQp1U4tU9z</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="str">
-        <v>EIR - PCV 1</v>
-      </c>
-      <c r="B53" s="5" t="str">
-        <v>PCV 1</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E53" s="5" t="str">
+      <c r="F116" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>zpyTHpOZVnc</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>EIR - Rubella not given</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>Rubella not given</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E117" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G53" s="5" t="str">
-        <v>fmXCCPENnwR</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="str">
-        <v>EIR - PCV 2</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <v>PCV 2</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E54" s="4" t="str">
+      <c r="F117" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>vmxWGaFgvvq</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>EIR - RV 1 (Rotarix)</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>RV 1 (Rotarix)</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E118" s="4" t="str">
         <v>default</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G54" s="4" t="str">
-        <v>PvHUllrtPiy</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="str">
-        <v>EIR - PCV 3</v>
-      </c>
-      <c r="B55" s="5" t="str">
-        <v>PCV 3</v>
-      </c>
-      <c r="C55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
+      <c r="F118" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>nIqQYeSwU9E</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>EIR - RV 1 (Rota Teq)</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>RV 1 (Rota Teq)</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
+      </c>
+      <c r="E119" s="5" t="str">
         <v>default</v>
       </c>
-      <c r="F55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G55" s="5" t="str">
-        <v>B4eJCy6LFLZ</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="str">
-        <v>EIR - PCV not given</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <v>PCV not given</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G56" s="4" t="str">
-        <v>fyvXreKLZNn</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
-      </c>
-      <c r="B57" s="5" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 1</v>
-      </c>
-      <c r="C57" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D57" s="5" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
-      </c>
-      <c r="E57" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F57" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G57" s="5" t="str">
-        <v>K3TcJM1ySQA</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 2</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D58" s="4" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G58" s="4" t="str">
-        <v>GPOoPDqle3V</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 3</v>
-      </c>
-      <c r="B59" s="5" t="str">
-        <v>Pentavalent (DPT-HepB-Hib) 3</v>
-      </c>
-      <c r="C59" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D59" s="5" t="str">
-        <v>Pentavalent (5 in 1), is a combination vaccine containing DPT, Hep B, and Hip. 3 doses. As early as 6 weeks of age, 4 week weeks minimum interval between doses.</v>
-      </c>
-      <c r="E59" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F59" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G59" s="5" t="str">
-        <v>pxCZNoqDVJC</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="str">
-        <v>EIR - Pentavalent not given</v>
-      </c>
-      <c r="B60" s="4" t="str">
-        <v>Pentavalent not given</v>
-      </c>
-      <c r="C60" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D60" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E60" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F60" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G60" s="4" t="str">
-        <v>LQVqn0ghg99</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="str">
-        <v>EIR - Rabies 1</v>
-      </c>
-      <c r="B61" s="5" t="str">
-        <v>Rabies 1</v>
-      </c>
-      <c r="C61" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D61" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E61" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F61" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G61" s="5" t="str">
-        <v>oVlOKPZPaFm</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="str">
-        <v>EIR - Rabies 2</v>
-      </c>
-      <c r="B62" s="4" t="str">
-        <v>Rabies 2</v>
-      </c>
-      <c r="C62" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D62" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E62" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F62" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G62" s="4" t="str">
-        <v>Py5GHJS2tdN</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="str">
-        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
-      </c>
-      <c r="B63" s="5" t="str">
-        <v>Recent infection with a temperature &gt; 39 degree C</v>
-      </c>
-      <c r="C63" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D63" s="5" t="str">
-        <v>Be aware, it is advisable to defer PCV Pneumococcal (Conjugate), and Rotavirus vaccinations until after an acute infection with temperature &gt;39 degrees C.</v>
-      </c>
-      <c r="E63" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F63" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G63" s="5" t="str">
-        <v>zpyTHpOZVnc</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="str">
-        <v>EIR - Rubella 1</v>
-      </c>
-      <c r="B64" s="4" t="str">
-        <v>Rubella 1</v>
-      </c>
-      <c r="C64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D64" s="4" t="str">
-        <v>Rubella. 1 dose. 9 or 12 months with containing measles vaccine. As a general rule, live vaccines should be given either simultaneously, or at least 4 weeks apart. Oral polio vaccine is the exception and can be given any time before or after RCA. Interference may occur between MMR and yellow fever vaccines if they are simultaneously administered to children &lt; 2 years of age. If the child has received blood products &lt;3 months, postpone vaccination. If possible receiving blood products should be avoided for up to 2 weeks post vaccination.</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F64" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G64" s="4" t="str">
-        <v>q7KhhAnm5GA</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="str">
-        <v>EIR - Rubella not given</v>
-      </c>
-      <c r="B65" s="5" t="str">
-        <v>Rubella not given</v>
-      </c>
-      <c r="C65" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D65" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E65" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F65" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G65" s="5" t="str">
-        <v>vmxWGaFgvvq</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="str">
-        <v>EIR - RV 1 (Rotarix)</v>
-      </c>
-      <c r="B66" s="4" t="str">
-        <v>RV 1 (Rotarix)</v>
-      </c>
-      <c r="C66" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D66" s="4" t="str">
-        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E66" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F66" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G66" s="4" t="str">
-        <v>nIqQYeSwU9E</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="str">
-        <v>EIR - RV 1 (Rota Teq)</v>
-      </c>
-      <c r="B67" s="5" t="str">
-        <v>RV 1 (Rota Teq)</v>
-      </c>
-      <c r="C67" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D67" s="5" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E67" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F67" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G67" s="5" t="str">
+      <c r="F119" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G119" s="5" t="str">
         <v>Y3eDHMTcSYk</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="4" t="str">
-        <v>EIR - RV 2 (Rotarix)</v>
-      </c>
-      <c r="B68" s="4" t="str">
-        <v>RV 2 (Rotarix)</v>
-      </c>
-      <c r="C68" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D68" s="4" t="str">
-        <v>Rotavirus (Rotarix). 2 doses. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F68" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G68" s="4" t="str">
-        <v>wYg2gOWSyJG</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="str">
-        <v>EIR - RV 2 (Rota Teq)</v>
-      </c>
-      <c r="B69" s="5" t="str">
-        <v>RV 2 (Rota Teq)</v>
-      </c>
-      <c r="C69" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D69" s="5" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E69" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F69" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G69" s="5" t="str">
-        <v>knh2BOb3F0I</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="str">
-        <v>EIR - RV 3 (Rota Teq)</v>
-      </c>
-      <c r="B70" s="4" t="str">
-        <v>RV 3 (Rota Teq)</v>
-      </c>
-      <c r="C70" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D70" s="4" t="str">
-        <v>Rotavirus (Rota Teq) 3 dose. As early as 6 weeks; 4 weeks minimum interval between doses. Do not give if &gt; 24 months old. Be aware, this vaccine should be postponed in case of ongoing acute gastroenteritis or fever with moderate to severe illness. Precautions are necessary if these is a history of intussusception or intestinal malformations, chronic gastrointestinal disease, and severe acute illness. Be aware, if the child is showing symptoms of severe immunosuppression, postpone vaccination until stabilized with ART treatment.</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F70" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G70" s="4" t="str">
-        <v>xMkkGCwSaDK</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="str">
-        <v>EIR - RV not given</v>
-      </c>
-      <c r="B71" s="5" t="str">
-        <v>RV not given</v>
-      </c>
-      <c r="C71" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D71" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E71" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F71" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G71" s="5" t="str">
-        <v>irQPcNG21Uf</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" s="4" t="str">
+    <row r="120" xml:space="preserve">
+      <c r="A120" s="4" t="str">
         <v>EIR - Show All immunization doses (checkbox)</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B120" s="4" t="str">
         <v>Show all doses_Yes</v>
       </c>
-      <c r="C72" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D72" s="4" t="str" xml:space="preserve">
+      <c r="C120" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D120" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">Override all program rules. This shows a free text box for explanation. 
 Must enter at least 5 characters to show all.</v>
       </c>
-      <c r="E72" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G72" s="4" t="str">
-        <v>WhUufJL8EDV</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="str">
-        <v>EIR - Show All immunization doses (explanation)</v>
-      </c>
-      <c r="B73" s="5" t="str">
-        <v>Show all doses_Explain</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D73" s="5" t="str">
-        <v>Must enter at least 5 characters to show all doses.</v>
-      </c>
-      <c r="E73" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G73" s="5" t="str">
-        <v>eZnkuQCWjgf</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="4" t="str">
-        <v>EIR - Show All non routine immunization doses (explanation)</v>
-      </c>
-      <c r="B74" s="4" t="str">
-        <v>Show all non routine doses_Explain</v>
-      </c>
-      <c r="C74" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D74" s="4" t="str">
-        <v>Must enter at least 5 characters to show all doses.</v>
-      </c>
-      <c r="E74" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F74" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G74" s="4" t="str">
-        <v>Y5pZ6PwFl1v</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="str">
-        <v>EIR - Show Non Routine immunization (checkbox)</v>
-      </c>
-      <c r="B75" s="5" t="str">
-        <v>Show Non Routine immunization</v>
-      </c>
-      <c r="C75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E75" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G75" s="5" t="str">
-        <v>Cp4GRpm57OD</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="str">
-        <v>EIR - Tdap (Td and ap containing) 1</v>
-      </c>
-      <c r="B76" s="4" t="str">
-        <v>Tdap (Td and ap containing) 1</v>
-      </c>
-      <c r="C76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E76" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F76" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G76" s="4" t="str">
-        <v>lbcmdWHt63Q</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 1</v>
-      </c>
-      <c r="B77" s="5" t="str">
-        <v>Tick-Borne Encephalitis 1</v>
-      </c>
-      <c r="C77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E77" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G77" s="5" t="str">
-        <v>fXpONYiBkKo</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="str">
-        <v>EIR - Tick-Borne Encephalitis 2</v>
-      </c>
-      <c r="B78" s="4" t="str">
-        <v>Tick-Borne Encephalitis 2</v>
-      </c>
-      <c r="C78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E78" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F78" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G78" s="4" t="str">
-        <v>Ft0cUWDPQu1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 3</v>
-      </c>
-      <c r="B79" s="5" t="str">
-        <v>Tick-Borne Encephalitis 3</v>
-      </c>
-      <c r="C79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E79" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G79" s="5" t="str">
-        <v>Twf9fM01hUq</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="str">
-        <v>EIR - Typhoid TCV (Typbar) 1</v>
-      </c>
-      <c r="B80" s="4" t="str">
-        <v>Typhoid TCV (Typbar) 1</v>
-      </c>
-      <c r="C80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E80" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F80" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G80" s="4" t="str">
-        <v>moK8t0dksIq</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 1</v>
-      </c>
-      <c r="B81" s="5" t="str">
-        <v>Typhoid (Ty21a) 1</v>
-      </c>
-      <c r="C81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E81" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G81" s="5" t="str">
-        <v>HLwoyFyqcG0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 2</v>
-      </c>
-      <c r="B82" s="4" t="str">
-        <v>Typhoid (Ty21a) 2</v>
-      </c>
-      <c r="C82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E82" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F82" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G82" s="4" t="str">
-        <v>UGx2U7O5gXY</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 3</v>
-      </c>
-      <c r="B83" s="5" t="str">
-        <v>Typhoid (Ty21a) 3</v>
-      </c>
-      <c r="C83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E83" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G83" s="5" t="str">
-        <v>GF2axG9TnnA</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 4</v>
-      </c>
-      <c r="B84" s="4" t="str">
-        <v>Typhoid (Ty21a) 4</v>
-      </c>
-      <c r="C84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E84" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F84" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G84" s="4" t="str">
-        <v>nqc2S6wDOI8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="str">
-        <v>EIR - Typhoid (Vi PS) 1</v>
-      </c>
-      <c r="B85" s="5" t="str">
-        <v>Typhoid (Vi PS) 1</v>
-      </c>
-      <c r="C85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E85" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G85" s="5" t="str">
-        <v>Aq0jJHZtwo9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="str">
-        <v>EIR - Update HIV status and Anaphylaxis history</v>
-      </c>
-      <c r="B86" s="4" t="str">
-        <v>HIV status and Anaphylaxis history</v>
-      </c>
-      <c r="C86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E86" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F86" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G86" s="4" t="str">
-        <v>LoaA9ETgadk</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="str">
-        <v>EIR - Vaccination place</v>
-      </c>
-      <c r="B87" s="5" t="str">
-        <v>Vaccination place</v>
-      </c>
-      <c r="C87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E87" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G87" s="5" t="str">
-        <v>HdzfEcDLnhX</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="str">
-        <v>EIR - Vaccine Non-Routine Unlock date</v>
-      </c>
-      <c r="B88" s="4" t="str">
-        <v>EPI - Nonroutine Unlock</v>
-      </c>
-      <c r="C88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E88" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F88" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G88" s="4" t="str">
-        <v>rpBEImeDflw</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="str">
-        <v>EIR - Vaccine Schedule Unlock date</v>
-      </c>
-      <c r="B89" s="5" t="str">
-        <v>EPI - Schedule Unlock</v>
-      </c>
-      <c r="C89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E89" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G89" s="5" t="str">
-        <v>Vy2Bgia39T2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="str">
-        <v>EIR - Varicella 1</v>
-      </c>
-      <c r="B90" s="4" t="str">
-        <v>Varicella 1</v>
-      </c>
-      <c r="C90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E90" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F90" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G90" s="4" t="str">
-        <v>mF1BqRm4QFB</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="str">
-        <v>EIR - Varicella 2</v>
-      </c>
-      <c r="B91" s="5" t="str">
-        <v>Varicella 2</v>
-      </c>
-      <c r="C91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E91" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G91" s="5" t="str">
-        <v>ZGzvVwZ8qU8</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="str">
-        <v>EIR - Yellow Fever 1</v>
-      </c>
-      <c r="B92" s="4" t="str">
-        <v>Yellow Fever 1</v>
-      </c>
-      <c r="C92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E92" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F92" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G92" s="4" t="str">
-        <v>mH9watsYzvq</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="str">
-        <v>GEN - Attendant at birth</v>
-      </c>
-      <c r="B93" s="5" t="str">
-        <v>Attendant at birth</v>
-      </c>
-      <c r="C93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E93" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G93" s="5" t="str">
-        <v>lQtJB35vsDj</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="str">
-        <v>GEN - Birth type</v>
-      </c>
-      <c r="B94" s="4" t="str">
-        <v>Birth type</v>
-      </c>
-      <c r="C94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E94" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F94" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G94" s="4" t="str">
-        <v>LtlzGAPWWo8</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="str">
-        <v>GEN - Birth weight (grams)</v>
-      </c>
-      <c r="B95" s="5" t="str">
-        <v>Birth weight (grams)</v>
-      </c>
-      <c r="C95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E95" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G95" s="5" t="str">
-        <v>WUquHs0Al7h</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="str">
-        <v>GEN - Facility of birth</v>
-      </c>
-      <c r="B96" s="4" t="str">
-        <v>Facility of birth</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E96" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G96" s="4" t="str">
-        <v>RTA1VXtS6r1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="str">
-        <v>GEN - Gestational age</v>
-      </c>
-      <c r="B97" s="5" t="str">
-        <v>Gestational age</v>
-      </c>
-      <c r="C97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E97" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G97" s="5" t="str">
-        <v>SaCLndgg6On</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="str">
-        <v>GEN - Mode of delivery</v>
-      </c>
-      <c r="B98" s="4" t="str">
-        <v>Mode of delivery</v>
-      </c>
-      <c r="C98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E98" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G98" s="4" t="str">
-        <v>fF7wxNym0Un</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="str">
-        <v>GEN - Parity</v>
-      </c>
-      <c r="B99" s="5" t="str">
-        <v>Parity</v>
-      </c>
-      <c r="C99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E99" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G99" s="5" t="str">
-        <v>B5BoWbyB1sY</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="str">
-        <v>GEN - Place of birth</v>
-      </c>
-      <c r="B100" s="4" t="str">
-        <v>Place of birth</v>
-      </c>
-      <c r="C100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E100" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G100" s="4" t="str">
-        <v>ABhkInP0wGY</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="str">
-        <v>GEN - Village of birth</v>
-      </c>
-      <c r="B101" s="5" t="str">
-        <v>Village of birth</v>
-      </c>
-      <c r="C101" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D101" s="5" t="str">
-        <v>If home delivery, must enter village where born</v>
-      </c>
-      <c r="E101" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F101" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G101" s="5" t="str">
-        <v>cCQRaVSSOsY</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 1)</v>
-      </c>
-      <c r="B102" s="4" t="str">
-        <v>EPI - Batch/lot number (Vaccine 1)</v>
-      </c>
-      <c r="C102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D102" s="4" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E102" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G102" s="4" t="str">
-        <v>fQkHPYnrdzg</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="str">
-        <v>EIR - Batch/lot number (Vaccine 2)</v>
-      </c>
-      <c r="B103" s="5" t="str">
-        <v>EPI - Batch/lot number (Vaccine 2)</v>
-      </c>
-      <c r="C103" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D103" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E103" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F103" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G103" s="5" t="str">
-        <v>Dqp54QciwV7</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 3)</v>
-      </c>
-      <c r="B104" s="4" t="str">
-        <v>EPI - Batch/lot number (Vaccine 3)</v>
-      </c>
-      <c r="C104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D104" s="4" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E104" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G104" s="4" t="str">
-        <v>ltxO9JBUR2j</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="str">
-        <v>EIR - Batch/lot number (Vaccine 4)</v>
-      </c>
-      <c r="B105" s="5" t="str">
-        <v>EPI - Batch/lot number (Vaccine 4)</v>
-      </c>
-      <c r="C105" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D105" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
-      </c>
-      <c r="E105" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F105" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G105" s="5" t="str">
-        <v>tI1ZKSX3fNF</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="str">
-        <v>EIR - Congenital anomaly</v>
-      </c>
-      <c r="B106" s="4" t="str">
-        <v>EPI - Congenital anomaly</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E106" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F106" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G106" s="4" t="str">
-        <v>d9xTkfCi5ge</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="str">
-        <v>EIR - Death</v>
-      </c>
-      <c r="B107" s="5" t="str">
-        <v>EPI - Death</v>
-      </c>
-      <c r="C107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E107" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F107" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G107" s="5" t="str">
-        <v>nhTULOXIfQ7</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="str">
-        <v>EIR - Doses Distributed to Patients</v>
-      </c>
-      <c r="B108" s="4" t="str">
-        <v>EPI - Doses Distributed to Patients</v>
-      </c>
-      <c r="C108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E108" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F108" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G108" s="4" t="str">
-        <v>jGYGY934OJa</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 1)</v>
-      </c>
-      <c r="B109" s="5" t="str">
-        <v>EPI - Expiry date</v>
-      </c>
-      <c r="C109" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D109" s="5" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E109" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F109" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G109" s="5" t="str">
-        <v>CKlN0nulXGh</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="str">
-        <v>EIR - Expiry date (Vaccine 2)</v>
-      </c>
-      <c r="B110" s="4" t="str">
-        <v>EPI - Expiry date (Vaccine 2)</v>
-      </c>
-      <c r="C110" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D110" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F110" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G110" s="4" t="str">
-        <v>lOwMwVEPRLy</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 3)</v>
-      </c>
-      <c r="B111" s="5" t="str">
-        <v>EPI - Expiry date (Vaccine 3)</v>
-      </c>
-      <c r="C111" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D111" s="5" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E111" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F111" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G111" s="5" t="str">
-        <v>ij0GuU5qVHT</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="str">
-        <v>EIR - Expiry date (Vaccine 4)</v>
-      </c>
-      <c r="B112" s="4" t="str">
-        <v>EPI - Expiry date (Vaccine 4)</v>
-      </c>
-      <c r="C112" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D112" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
-      </c>
-      <c r="E112" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F112" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G112" s="4" t="str">
-        <v>SwGVBiNWvVT</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="str">
-        <v>EIR - Fever</v>
-      </c>
-      <c r="B113" s="5" t="str">
-        <v>EPI - Fever</v>
-      </c>
-      <c r="C113" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D113" s="5" t="str">
-        <v>Does the case have fever or not</v>
-      </c>
-      <c r="E113" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F113" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G113" s="5" t="str">
-        <v>k5CLkBHLSti</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="str">
-        <v>EIR - Hospitalization</v>
-      </c>
-      <c r="B114" s="4" t="str">
-        <v>EPI - Hospitalization</v>
-      </c>
-      <c r="C114" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D114" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E114" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F114" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G114" s="4" t="str">
-        <v>aLzZB7UYZXA</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="str">
-        <v>EIR - Life threatening</v>
-      </c>
-      <c r="B115" s="5" t="str">
-        <v>EPI - Life threatening</v>
-      </c>
-      <c r="C115" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D115" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E115" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F115" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G115" s="5" t="str">
-        <v>Pw8g8zttkAW</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="4" t="str">
-        <v>EIR - Malaise</v>
-      </c>
-      <c r="B116" s="4" t="str">
-        <v>EPI - Malaise</v>
-      </c>
-      <c r="C116" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D116" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E116" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F116" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G116" s="4" t="str">
-        <v>OxhZdhpFPd9</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="str">
-        <v>EIR - Nonserious adverse event following immunization</v>
-      </c>
-      <c r="B117" s="5" t="str">
-        <v>Non-serious AEFI</v>
-      </c>
-      <c r="C117" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D117" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E117" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F117" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G117" s="5" t="str">
-        <v>WrnBsYluDf4</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="str">
-        <v>EIR - Other Signs and symptoms</v>
-      </c>
-      <c r="B118" s="4" t="str">
-        <v>EPI - Other Signs and symptoms</v>
-      </c>
-      <c r="C118" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D118" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E118" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F118" s="4" t="str">
-        <v/>
-      </c>
-      <c r="G118" s="4" t="str">
-        <v>OwuxWuHerlR</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="str">
-        <v>EIR - Persistent or significant disability</v>
-      </c>
-      <c r="B119" s="5" t="str">
-        <v>EPI - Persistent or significant disability</v>
-      </c>
-      <c r="C119" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D119" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E119" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F119" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G119" s="5" t="str">
-        <v>RJVYDrodCWP</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="4" t="str">
-        <v>EIR - Redness</v>
-      </c>
-      <c r="B120" s="4" t="str">
-        <v>EPI - Redness</v>
-      </c>
-      <c r="C120" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D120" s="4" t="str">
-        <v>Local reaction at the vaccine site; redness</v>
-      </c>
       <c r="E120" s="4" t="str">
         <v>default</v>
       </c>
@@ -3726,21 +3726,21 @@
         <v/>
       </c>
       <c r="G120" s="4" t="str">
-        <v>TR57DWCiusw</v>
+        <v>WhUufJL8EDV</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="str">
-        <v>EIR - Serious adverse event following immunization</v>
+        <v>EIR - Show All non routine immunization doses (explanation)</v>
       </c>
       <c r="B121" s="5" t="str">
-        <v>EPI - Serious adverse event following immunization</v>
+        <v>Show all non routine doses_Explain</v>
       </c>
       <c r="C121" s="5" t="str">
         <v/>
       </c>
       <c r="D121" s="5" t="str">
-        <v/>
+        <v>Must enter at least 5 characters to show all doses.</v>
       </c>
       <c r="E121" s="5" t="str">
         <v>default</v>
@@ -3749,21 +3749,21 @@
         <v/>
       </c>
       <c r="G121" s="5" t="str">
-        <v>oxa7COsVggZ</v>
+        <v>Y5pZ6PwFl1v</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="str">
-        <v>EIR - Swelling</v>
+        <v>EIR - Show Non Routine immunization (checkbox)</v>
       </c>
       <c r="B122" s="4" t="str">
-        <v>EPI - Swelling</v>
+        <v>Show Non Routine immunization</v>
       </c>
       <c r="C122" s="4" t="str">
         <v/>
       </c>
       <c r="D122" s="4" t="str">
-        <v>Local reaction at the vaccine site; swelling.</v>
+        <v/>
       </c>
       <c r="E122" s="4" t="str">
         <v>default</v>
@@ -3772,21 +3772,21 @@
         <v/>
       </c>
       <c r="G122" s="4" t="str">
-        <v>enqsISOu1kT</v>
+        <v>Cp4GRpm57OD</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EIR - Swelling</v>
       </c>
       <c r="B123" s="5" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EPI - Swelling</v>
       </c>
       <c r="C123" s="5" t="str">
         <v/>
       </c>
       <c r="D123" s="5" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v>Local reaction at the vaccine site; swelling.</v>
       </c>
       <c r="E123" s="5" t="str">
         <v>default</v>
@@ -3795,21 +3795,21 @@
         <v/>
       </c>
       <c r="G123" s="5" t="str">
-        <v>fnUUCwTR1Dh</v>
+        <v>enqsISOu1kT</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>EIR - Tdap (Td and ap containing) 1</v>
       </c>
       <c r="B124" s="4" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>Tdap (Td and ap containing) 1</v>
       </c>
       <c r="C124" s="4" t="str">
         <v/>
       </c>
       <c r="D124" s="4" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v/>
       </c>
       <c r="E124" s="4" t="str">
         <v>default</v>
@@ -3818,21 +3818,21 @@
         <v/>
       </c>
       <c r="G124" s="4" t="str">
-        <v>aTtk7QAT522</v>
+        <v>lbcmdWHt63Q</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>EIR - Tick-Borne Encephalitis 2</v>
       </c>
       <c r="B125" s="5" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>Tick-Borne Encephalitis 2</v>
       </c>
       <c r="C125" s="5" t="str">
         <v/>
       </c>
       <c r="D125" s="5" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v/>
       </c>
       <c r="E125" s="5" t="str">
         <v>default</v>
@@ -3841,21 +3841,21 @@
         <v/>
       </c>
       <c r="G125" s="5" t="str">
-        <v>NvUsUdzZvaQ</v>
+        <v>Ft0cUWDPQu1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>EIR - Tick-Borne Encephalitis 3</v>
       </c>
       <c r="B126" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>Tick-Borne Encephalitis 3</v>
       </c>
       <c r="C126" s="4" t="str">
         <v/>
       </c>
       <c r="D126" s="4" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v/>
       </c>
       <c r="E126" s="4" t="str">
         <v>default</v>
@@ -3864,21 +3864,21 @@
         <v/>
       </c>
       <c r="G126" s="4" t="str">
-        <v>MfmRCIAITnO</v>
+        <v>Twf9fM01hUq</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="str">
-        <v>EIR - Vaccine 1 name</v>
+        <v>EIR - Typhoid (Vi PS) 1</v>
       </c>
       <c r="B127" s="5" t="str">
-        <v>EPI - Vaccine 1 name</v>
+        <v>Typhoid (Vi PS) 1</v>
       </c>
       <c r="C127" s="5" t="str">
         <v/>
       </c>
       <c r="D127" s="5" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E127" s="5" t="str">
         <v>default</v>
@@ -3887,21 +3887,21 @@
         <v/>
       </c>
       <c r="G127" s="5" t="str">
-        <v>PbvYJpzsn0f</v>
+        <v>Aq0jJHZtwo9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="str">
-        <v>EIR - Vaccine 2 name</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
       <c r="B128" s="4" t="str">
-        <v>EPI - Vaccine 2 name</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
       <c r="C128" s="4" t="str">
         <v/>
       </c>
       <c r="D128" s="4" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E128" s="4" t="str">
         <v>default</v>
@@ -3910,21 +3910,21 @@
         <v/>
       </c>
       <c r="G128" s="4" t="str">
-        <v>xq6memI5KHI</v>
+        <v>fnUUCwTR1Dh</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="str">
-        <v>EIR - Vaccine 3 name</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
       <c r="B129" s="5" t="str">
-        <v>EPI - Vaccine 3 name</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
       <c r="C129" s="5" t="str">
         <v/>
       </c>
       <c r="D129" s="5" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E129" s="5" t="str">
         <v>default</v>
@@ -3933,21 +3933,21 @@
         <v/>
       </c>
       <c r="G129" s="5" t="str">
-        <v>wwLBNaLV0gO</v>
+        <v>NvUsUdzZvaQ</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="str">
-        <v>EIR - Vaccine 4 name</v>
+        <v>EIR - Vaccination place</v>
       </c>
       <c r="B130" s="4" t="str">
-        <v>EPI - Vaccine 4 name</v>
+        <v>Vaccination place</v>
       </c>
       <c r="C130" s="4" t="str">
         <v/>
       </c>
       <c r="D130" s="4" t="str">
-        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
+        <v/>
       </c>
       <c r="E130" s="4" t="str">
         <v>default</v>
@@ -3956,21 +3956,21 @@
         <v/>
       </c>
       <c r="G130" s="4" t="str">
-        <v>Ln1AD3eTpZ5</v>
+        <v>HdzfEcDLnhX</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="str">
-        <v>EIR - Vaccine given at public site</v>
+        <v>EIR - Vaccine 2 name</v>
       </c>
       <c r="B131" s="5" t="str">
-        <v>Vaccine given at public site</v>
+        <v>EPI - Vaccine 2 name</v>
       </c>
       <c r="C131" s="5" t="str">
         <v/>
       </c>
       <c r="D131" s="5" t="str">
-        <v/>
+        <v>The vaccine that is suspected to have caused the AEFI (provide brand name, if possible)</v>
       </c>
       <c r="E131" s="5" t="str">
         <v>default</v>
@@ -3979,15 +3979,15 @@
         <v/>
       </c>
       <c r="G131" s="5" t="str">
-        <v>M2UrlibxQ46</v>
+        <v>xq6memI5KHI</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="str">
-        <v>EIR - Vaccine site</v>
+        <v>EIR - Vaccine given at public site</v>
       </c>
       <c r="B132" s="4" t="str">
-        <v>Vaccine site</v>
+        <v>Vaccine given at public site</v>
       </c>
       <c r="C132" s="4" t="str">
         <v/>
@@ -4002,15 +4002,15 @@
         <v/>
       </c>
       <c r="G132" s="4" t="str">
-        <v>Rm7PlAz6udF</v>
+        <v>M2UrlibxQ46</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="str">
-        <v>EIR - Vaccine site other</v>
+        <v>EIR - Vials Received</v>
       </c>
       <c r="B133" s="5" t="str">
-        <v>Vaccine site other</v>
+        <v>EPI - Vials Received</v>
       </c>
       <c r="C133" s="5" t="str">
         <v/>
@@ -4025,15 +4025,15 @@
         <v/>
       </c>
       <c r="G133" s="5" t="str">
-        <v>JaaBL3gg38M</v>
+        <v>PGlhRO1cBQJ</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="str">
-        <v>EIR - Vials Discarded</v>
+        <v>EIR - Vials Redistributed</v>
       </c>
       <c r="B134" s="4" t="str">
-        <v>EPI - Vials Discarded</v>
+        <v>EPI - Vials Redistributed</v>
       </c>
       <c r="C134" s="4" t="str">
         <v/>
@@ -4048,15 +4048,15 @@
         <v/>
       </c>
       <c r="G134" s="4" t="str">
-        <v>TIlgxyquUD0</v>
+        <v>YVqrsUuxegW</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="str">
-        <v>EIR - Vials on Hand</v>
+        <v>GEN - Facility of birth</v>
       </c>
       <c r="B135" s="5" t="str">
-        <v>EPI - Vials on Hand</v>
+        <v>Facility of birth</v>
       </c>
       <c r="C135" s="5" t="str">
         <v/>
@@ -4071,15 +4071,15 @@
         <v/>
       </c>
       <c r="G135" s="5" t="str">
-        <v>eNl6EKSFbJ0</v>
+        <v>RTA1VXtS6r1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="str">
-        <v>EIR - Vials Received</v>
+        <v>GEN - Gestational age</v>
       </c>
       <c r="B136" s="4" t="str">
-        <v>EPI - Vials Received</v>
+        <v>Gestational age</v>
       </c>
       <c r="C136" s="4" t="str">
         <v/>
@@ -4094,15 +4094,15 @@
         <v/>
       </c>
       <c r="G136" s="4" t="str">
-        <v>PGlhRO1cBQJ</v>
+        <v>SaCLndgg6On</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="str">
-        <v>EIR - Vials Redistributed</v>
+        <v>GEN - Mode of delivery</v>
       </c>
       <c r="B137" s="5" t="str">
-        <v>EPI - Vials Redistributed</v>
+        <v>Mode of delivery</v>
       </c>
       <c r="C137" s="5" t="str">
         <v/>
@@ -4117,21 +4117,21 @@
         <v/>
       </c>
       <c r="G137" s="5" t="str">
-        <v>YVqrsUuxegW</v>
+        <v>fF7wxNym0Un</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="str">
-        <v>EIR - Weakness</v>
+        <v>GEN - Village of birth</v>
       </c>
       <c r="B138" s="4" t="str">
-        <v>EPI - Weakness</v>
+        <v>Village of birth</v>
       </c>
       <c r="C138" s="4" t="str">
         <v/>
       </c>
       <c r="D138" s="4" t="str">
-        <v/>
+        <v>If home delivery, must enter village where born</v>
       </c>
       <c r="E138" s="4" t="str">
         <v>default</v>
@@ -4140,7 +4140,7 @@
         <v/>
       </c>
       <c r="G138" s="4" t="str">
-        <v>qrNvkFCiOAQ</v>
+        <v>cCQRaVSSOsY</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +4355,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>EIR - Malaise</v>
+        <v>GEN - Attendant at birth</v>
       </c>
     </row>
     <row r="26">
@@ -4363,7 +4363,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 2</v>
+        <v>EIR - Malaise</v>
       </c>
     </row>
     <row r="27">
@@ -4371,7 +4371,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 4</v>
+        <v>EIR - Typhoid (Ty21a) 2</v>
       </c>
     </row>
     <row r="28">
@@ -4379,7 +4379,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>EIR - Has the birth certificate been delivered to the parents?</v>
+        <v>EIR - Typhoid (Ty21a) 4</v>
       </c>
     </row>
     <row r="29">
@@ -4387,7 +4387,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>EIR - bOPV 1</v>
+        <v>EIR - Has the birth certificate been delivered to the parents?</v>
       </c>
     </row>
     <row r="30">
@@ -4395,7 +4395,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>EIR - RV 2 (Rota Teq)</v>
+        <v>EIR - bOPV 1</v>
       </c>
     </row>
     <row r="31">
@@ -4403,7 +4403,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>EIR - Batch/lot number (Vaccine 1)</v>
+        <v>EIR - RV 2 (Rota Teq)</v>
       </c>
     </row>
     <row r="32">
@@ -4411,7 +4411,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>EIR - Rabies 2</v>
+        <v>EIR - Batch/lot number (Vaccine 1)</v>
       </c>
     </row>
     <row r="33">
@@ -4419,7 +4419,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>EIR - Persistent or significant disability</v>
+        <v>EIR - Rabies 2</v>
       </c>
     </row>
     <row r="34">
@@ -4427,7 +4427,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>EIR - HPV 1</v>
+        <v>EIR - Persistent or significant disability</v>
       </c>
     </row>
     <row r="35">
@@ -4435,7 +4435,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>EIR - Hepatitis B 1</v>
+        <v>EIR - HPV 1</v>
       </c>
     </row>
     <row r="36">
@@ -4443,7 +4443,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>EIR - Batch/lot number (Vaccine 4)</v>
+        <v>EIR - Hepatitis B 1</v>
       </c>
     </row>
     <row r="37">
@@ -4451,7 +4451,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>EIR - Vaccine site other</v>
+        <v>EIR - Batch/lot number (Vaccine 4)</v>
       </c>
     </row>
     <row r="38">
@@ -4459,7 +4459,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>EIR - Typhoid (Ty21a) 3</v>
+        <v>EIR - Vaccine site other</v>
       </c>
     </row>
     <row r="39">
@@ -4467,7 +4467,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>EIR - Hepatitis B not given</v>
+        <v>EIR - Typhoid (Ty21a) 3</v>
       </c>
     </row>
     <row r="40">
@@ -4475,7 +4475,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>EIR - MMR1</v>
+        <v>EIR - Hepatitis B not given</v>
       </c>
     </row>
     <row r="41">
@@ -4483,7 +4483,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>EIR - Serious adverse event following immunization</v>
+        <v>EIR - MMR1</v>
       </c>
     </row>
     <row r="42">
@@ -4491,7 +4491,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>EIR - RV 2 (Rotarix)</v>
+        <v>EIR - Serious adverse event following immunization</v>
       </c>
     </row>
     <row r="43">
@@ -4499,7 +4499,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>EIR - Typhoid TCV (Typbar) 1</v>
+        <v>EIR - RV 2 (Rotarix)</v>
       </c>
     </row>
     <row r="44">
@@ -4507,7 +4507,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>EIR - Weakness</v>
+        <v>EIR - Typhoid TCV (Typbar) 1</v>
       </c>
     </row>
     <row r="45">
@@ -4515,7 +4515,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>EIR - Doses Distributed to Patients</v>
+        <v>EIR - Weakness</v>
       </c>
     </row>
     <row r="46">
@@ -4523,7 +4523,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>EIR - Vaccination 4 date</v>
+        <v>EIR - Doses Distributed to Patients</v>
       </c>
     </row>
     <row r="47">
@@ -4531,7 +4531,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>EIR - Show All immunization doses (explanation)</v>
+        <v>EIR - Vaccination 4 date</v>
       </c>
     </row>
     <row r="48">
@@ -4539,7 +4539,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>EIR - Vaccine Schedule Unlock date</v>
+        <v>EIR - Show All immunization doses (explanation)</v>
       </c>
     </row>
     <row r="49">
@@ -4547,7 +4547,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>EIR - RV not given</v>
+        <v>EIR - Vaccine Schedule Unlock date</v>
       </c>
     </row>
     <row r="50">
@@ -4555,7 +4555,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
+        <v>EIR - RV not given</v>
       </c>
     </row>
     <row r="51">
@@ -4563,7 +4563,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>EIR - PCV not given</v>
+        <v>EIR - Japanese Encephalitis 1 (Inactivated vero cell-derived)</v>
       </c>
     </row>
     <row r="52">
@@ -4571,7 +4571,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>EIR - Nonserious adverse event following immunization</v>
+        <v>GEN - Birth type</v>
       </c>
     </row>
     <row r="53">
@@ -4579,7 +4579,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>EIR - mOPV</v>
+        <v>EIR - PCV not given</v>
       </c>
     </row>
     <row r="54">
@@ -4587,7 +4587,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>EIR - Update HIV status and Anaphylaxis history</v>
+        <v>EIR - Nonserious adverse event following immunization</v>
       </c>
     </row>
     <row r="55">
@@ -4595,7 +4595,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>EIR - bOPV 3</v>
+        <v>EIR - mOPV</v>
       </c>
     </row>
     <row r="56">
@@ -4603,7 +4603,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>EIR - RV 3 (Rota Teq)</v>
+        <v>EIR - Update HIV status and Anaphylaxis history</v>
       </c>
     </row>
     <row r="57">
@@ -4611,7 +4611,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 1</v>
+        <v>GEN - Parity</v>
       </c>
     </row>
     <row r="58">
@@ -4619,7 +4619,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>EIR - Measles 2</v>
+        <v>GEN - Place of birth</v>
       </c>
     </row>
     <row r="59">
@@ -4627,7 +4627,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>EIR - History of Anaphylactic reaction</v>
+        <v>EIR - bOPV 3</v>
       </c>
     </row>
     <row r="60">
@@ -4635,7 +4635,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>EIR - Vaccine 3 name</v>
+        <v>EIR - RV 3 (Rota Teq)</v>
       </c>
     </row>
     <row r="61">
@@ -4643,7 +4643,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>EIR - IPV 2</v>
+        <v>EIR - Tick-Borne Encephalitis 1</v>
       </c>
     </row>
     <row r="62">
@@ -4651,7 +4651,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>EIR - Vaccine site</v>
+        <v>GEN - Birth weight (grams)</v>
       </c>
     </row>
     <row r="63">
@@ -4659,7 +4659,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>EIR - List reactions</v>
+        <v>EIR - Measles 2</v>
       </c>
     </row>
     <row r="64">
@@ -4667,7 +4667,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>EIR - Yellow Fever 1</v>
+        <v>EIR - History of Anaphylactic reaction</v>
       </c>
     </row>
     <row r="65">
@@ -4675,7 +4675,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>EIR - MR1</v>
+        <v>EIR - Vaccine 3 name</v>
       </c>
     </row>
     <row r="66">
@@ -4683,7 +4683,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>EIR - Meningococcal 2</v>
+        <v>EIR - IPV 2</v>
       </c>
     </row>
     <row r="67">
@@ -4691,7 +4691,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>EIR - Vaccine Non-Routine Unlock date</v>
+        <v>EIR - Vaccine site</v>
       </c>
     </row>
     <row r="68">
@@ -4699,7 +4699,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>EIR - Expiry date (Vaccine 1)</v>
+        <v>EIR - List reactions</v>
       </c>
     </row>
     <row r="69">
@@ -4707,7 +4707,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>EIR - PCV 3</v>
+        <v>EIR - Yellow Fever 1</v>
       </c>
     </row>
     <row r="70">
@@ -4715,7 +4715,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>EIR - Vaccination 2 date</v>
+        <v>EIR - MR1</v>
       </c>
     </row>
     <row r="71">
@@ -4723,7 +4723,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>EIR - Typhoid (Ty21a) 1</v>
+        <v>EIR - Meningococcal 2</v>
       </c>
     </row>
     <row r="72">
@@ -4731,7 +4731,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>EIR - DTap (Td containing) 1</v>
+        <v>EIR - Vaccine Non-Routine Unlock date</v>
       </c>
     </row>
     <row r="73">
@@ -4739,7 +4739,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>EIR - Dengue 1</v>
+        <v>EIR - Expiry date (Vaccine 1)</v>
       </c>
     </row>
     <row r="74">
@@ -4747,7 +4747,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>EIR - BCG 0.05mL</v>
+        <v>EIR - PCV 3</v>
       </c>
     </row>
     <row r="75">
@@ -4755,7 +4755,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>EIR - Rabies 1</v>
+        <v>EIR - Vaccination 2 date</v>
       </c>
     </row>
     <row r="76">
@@ -4763,7 +4763,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
+        <v>EIR - Typhoid (Ty21a) 1</v>
       </c>
     </row>
     <row r="77">
@@ -4771,7 +4771,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>EIR - Swelling</v>
+        <v>EIR - DTap (Td containing) 1</v>
       </c>
     </row>
     <row r="78">
@@ -4779,7 +4779,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>EIR - Vaccination place</v>
+        <v>GEN - Facility of birth</v>
       </c>
     </row>
     <row r="79">
@@ -4787,7 +4787,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>EIR - Vials Redistributed</v>
+        <v>EIR - Dengue 1</v>
       </c>
     </row>
     <row r="80">
@@ -4795,7 +4795,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>EIR - Measles 1</v>
+        <v>EIR - BCG 0.05mL</v>
       </c>
     </row>
     <row r="81">
@@ -4803,7 +4803,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 3</v>
+        <v>EIR - Rabies 1</v>
       </c>
     </row>
     <row r="82">
@@ -4811,7 +4811,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>EIR - MR2</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 2</v>
       </c>
     </row>
     <row r="83">
@@ -4819,7 +4819,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>EIR - Dengue 3</v>
+        <v>EIR - Swelling</v>
       </c>
     </row>
     <row r="84">
@@ -4827,7 +4827,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>EIR - BCG not given</v>
+        <v>EIR - Vaccination place</v>
       </c>
     </row>
     <row r="85">
@@ -4835,7 +4835,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>EIR - Hepatitis B 3</v>
+        <v>EIR - Vials Redistributed</v>
       </c>
     </row>
     <row r="86">
@@ -4843,7 +4843,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>EIR - Measles 0</v>
+        <v>EIR - Measles 1</v>
       </c>
     </row>
     <row r="87">
@@ -4851,7 +4851,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>EIR - Tick-Borne Encephalitis 2</v>
+        <v>EIR - Tick-Borne Encephalitis 3</v>
       </c>
     </row>
     <row r="88">
@@ -4859,7 +4859,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>EIR - Show All non routine immunization doses (explanation)</v>
+        <v>EIR - MR2</v>
       </c>
     </row>
     <row r="89">
@@ -4867,7 +4867,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>EIR - Life threatening</v>
+        <v>EIR - Dengue 3</v>
       </c>
     </row>
     <row r="90">
@@ -4875,7 +4875,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>EIR - PCV 2</v>
+        <v>EIR - BCG not given</v>
       </c>
     </row>
     <row r="91">
@@ -4883,7 +4883,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
+        <v>EIR - Hepatitis B 3</v>
       </c>
     </row>
     <row r="92">
@@ -4891,7 +4891,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>EIR - Birth registration date</v>
+        <v>EIR - Measles 0</v>
       </c>
     </row>
     <row r="93">
@@ -4899,7 +4899,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>EIR - Hepatitis A 1</v>
+        <v>EIR - Tick-Borne Encephalitis 2</v>
       </c>
     </row>
     <row r="94">
@@ -4907,7 +4907,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>EIR - IPV 4 (Booster dose)</v>
+        <v>EIR - Show All non routine immunization doses (explanation)</v>
       </c>
     </row>
     <row r="95">
@@ -4915,7 +4915,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>EIR - PCV 1</v>
+        <v>EIR - Life threatening</v>
       </c>
     </row>
     <row r="96">
@@ -4923,7 +4923,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>EIR - Show All immunization doses (checkbox)</v>
+        <v>EIR - PCV 2</v>
       </c>
     </row>
     <row r="97">
@@ -4931,7 +4931,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
+        <v>EIR - Japanese Encephalitis 1 (Live Attenuated)</v>
       </c>
     </row>
     <row r="98">
@@ -4939,7 +4939,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
+        <v>EIR - Birth registration date</v>
       </c>
     </row>
     <row r="99">
@@ -4947,7 +4947,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>EIR - bOPV 4</v>
+        <v>EIR - Hepatitis A 1</v>
       </c>
     </row>
     <row r="100">
@@ -4955,7 +4955,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>EIR - RV 1 (Rotarix)</v>
+        <v>EIR - IPV 4 (Booster dose)</v>
       </c>
     </row>
     <row r="101">
@@ -4963,7 +4963,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>EIR - IPV not given</v>
+        <v>EIR - PCV 1</v>
       </c>
     </row>
     <row r="102">
@@ -4971,7 +4971,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>EIR - Death</v>
+        <v>GEN - Mode of delivery</v>
       </c>
     </row>
     <row r="103">
@@ -4979,7 +4979,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>EIR - Vaccine 2 name</v>
+        <v>EIR - Show All immunization doses (checkbox)</v>
       </c>
     </row>
     <row r="104">
@@ -4987,7 +4987,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
+        <v>EIR - Diagnosed with HIV or severe Immunodeficiency</v>
       </c>
     </row>
     <row r="105">
@@ -4995,7 +4995,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>EIR - Meningococcal 1</v>
+        <v>EIR - Recent infection with a temperature &gt; 39 degree C</v>
       </c>
     </row>
     <row r="106">
@@ -5003,7 +5003,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>EIR - Vaccine given at public site</v>
+        <v>EIR - bOPV 4</v>
       </c>
     </row>
     <row r="107">
@@ -5011,7 +5011,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 4)</v>
+        <v>EIR - RV 1 (Rotarix)</v>
       </c>
     </row>
     <row r="108">
@@ -5019,7 +5019,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>EIR - Tdap (Td and ap containing) 1</v>
+        <v>EIR - IPV not given</v>
       </c>
     </row>
     <row r="109">
@@ -5027,7 +5027,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>EIR - Vaccination 3 date</v>
+        <v>GEN - Gestational age</v>
       </c>
     </row>
     <row r="110">
@@ -5035,7 +5035,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>EIR - Hepatitis B 2</v>
+        <v>EIR - Death</v>
       </c>
     </row>
     <row r="111">
@@ -5043,7 +5043,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>EIR - OPV not given</v>
+        <v>EIR - Vaccine 2 name</v>
       </c>
     </row>
     <row r="112">
@@ -5051,7 +5051,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>EIR - Vials Received</v>
+        <v>EIR - Japanese Encephalitis 2 (Inactivated vero cell-derived)</v>
       </c>
     </row>
     <row r="113">
@@ -5059,7 +5059,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>EIR - RV 1 (Rota Teq)</v>
+        <v>EIR - Meningococcal 1</v>
       </c>
     </row>
     <row r="114">
@@ -5067,7 +5067,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>EIR - HPV 2</v>
+        <v>EIR - Vaccine given at public site</v>
       </c>
     </row>
     <row r="115">
@@ -5075,7 +5075,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
+        <v>EIR - Expiry date (Vaccine 4)</v>
       </c>
     </row>
     <row r="116">
@@ -5083,7 +5083,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>EIR - Show Non Routine immunization (checkbox)</v>
+        <v>EIR - Tdap (Td and ap containing) 1</v>
       </c>
     </row>
     <row r="117">
@@ -5091,7 +5091,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B117" s="5" t="str">
-        <v>EIR - DTwP (Td containing) 1</v>
+        <v>EIR - Vaccination 3 date</v>
       </c>
     </row>
     <row r="118">
@@ -5099,7 +5099,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>EIR - Has the CRVS system been notified?</v>
+        <v>EIR - Hepatitis B 2</v>
       </c>
     </row>
     <row r="119">
@@ -5107,7 +5107,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B119" s="5" t="str">
-        <v>EIR - Other Signs and symptoms</v>
+        <v>GEN - Village of birth</v>
       </c>
     </row>
     <row r="120">
@@ -5115,7 +5115,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B120" s="4" t="str">
-        <v>EIR - Vaccination 1 date</v>
+        <v>EIR - OPV not given</v>
       </c>
     </row>
     <row r="121">
@@ -5123,7 +5123,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B121" s="5" t="str">
-        <v>EIR - bOPV 0</v>
+        <v>EIR - Vials Received</v>
       </c>
     </row>
     <row r="122">
@@ -5131,7 +5131,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B122" s="4" t="str">
-        <v>EIR - IPV 1</v>
+        <v>EIR - RV 1 (Rota Teq)</v>
       </c>
     </row>
     <row r="123">
@@ -5139,7 +5139,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B123" s="5" t="str">
-        <v>EIR - Typhoid (Vi PS) 1</v>
+        <v>EIR - HPV 2</v>
       </c>
     </row>
     <row r="124">
@@ -5147,7 +5147,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B124" s="4" t="str">
-        <v>EIR - bOPV 2</v>
+        <v>EIR - Pentavalent (DPT-HepB-Hib) 1</v>
       </c>
     </row>
     <row r="125">
@@ -5155,7 +5155,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B125" s="5" t="str">
-        <v>EIR - Cholera 2</v>
+        <v>EIR - Show Non Routine immunization (checkbox)</v>
       </c>
     </row>
     <row r="126">
@@ -5163,7 +5163,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B126" s="4" t="str">
-        <v>EIR - Dengue 2</v>
+        <v>EIR - DTwP (Td containing) 1</v>
       </c>
     </row>
     <row r="127">
@@ -5171,7 +5171,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B127" s="5" t="str">
-        <v>EIR - Fever</v>
+        <v>EIR - Has the CRVS system been notified?</v>
       </c>
     </row>
     <row r="128">
@@ -5179,7 +5179,7 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B128" s="4" t="str">
-        <v>EIR - Rubella not given</v>
+        <v>EIR - Other Signs and symptoms</v>
       </c>
     </row>
     <row r="129">
@@ -5187,79 +5187,79 @@
         <v>EIR - Immunization Registry</v>
       </c>
       <c r="B129" s="5" t="str">
-        <v>EIR - Expiry date (Vaccine 2)</v>
+        <v>EIR - Vaccination 1 date</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B130" s="4" t="str">
-        <v>GEN - Attendant at birth</v>
+        <v>EIR - bOPV 0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B131" s="5" t="str">
-        <v>GEN - Village of birth</v>
+        <v>EIR - IPV 1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B132" s="4" t="str">
-        <v>GEN - Facility of birth</v>
+        <v>EIR - Typhoid (Vi PS) 1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B133" s="5" t="str">
-        <v>GEN - Parity</v>
+        <v>EIR - bOPV 2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B134" s="4" t="str">
-        <v>GEN - Birth weight (grams)</v>
+        <v>EIR - Cholera 2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B135" s="5" t="str">
-        <v>GEN - Place of birth</v>
+        <v>EIR - Dengue 2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B136" s="4" t="str">
-        <v>GEN - Gestational age</v>
+        <v>EIR - Fever</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B137" s="5" t="str">
-        <v>GEN - Mode of delivery</v>
+        <v>EIR - Rubella not given</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="str">
-        <v>VE - Vital Events</v>
+        <v>EIR - Immunization Registry</v>
       </c>
       <c r="B138" s="4" t="str">
-        <v>GEN - Birth type</v>
+        <v>EIR - Expiry date (Vaccine 2)</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5268,52 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v>Categories</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>bjDvmb4bfuf</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v>default</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -5290,7 +5335,7 @@
         <v>UID</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>Categories</v>
+        <v>Category options</v>
       </c>
     </row>
     <row r="2">
@@ -5301,83 +5346,10 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>bjDvmb4bfuf</v>
+        <v>GLevLNI9wkl</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>default; default</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
         <v>default</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>bjDvmb4bfuf</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <v>default; default</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>Category options</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>GLevLNI9wkl</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>default; default</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>GLevLNI9wkl</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <v>default; default</v>
       </c>
     </row>
   </sheetData>
@@ -5386,7 +5358,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -5418,24 +5390,13 @@
         <v>xYerKDKCefk</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>xYerKDKCefk</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -5464,17 +5425,6 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>HllvX50cXC0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
         <v>HllvX50cXC0</v>
       </c>
     </row>
@@ -7362,7 +7312,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -7384,7 +7334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Immunization (Tracker)</v>
+        <v>EIR</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
@@ -7393,7 +7343,7 @@
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
   </sheetData>
@@ -7480,7 +7430,7 @@
         <v/>
       </c>
       <c r="J2" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="3">
@@ -7512,7 +7462,7 @@
         <v/>
       </c>
       <c r="J3" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="4">
@@ -7544,7 +7494,7 @@
         <v/>
       </c>
       <c r="J4" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="5">
@@ -7576,7 +7526,7 @@
         <v/>
       </c>
       <c r="J5" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="6">
@@ -7608,7 +7558,7 @@
         <v/>
       </c>
       <c r="J6" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="7">
@@ -7640,7 +7590,7 @@
         <v/>
       </c>
       <c r="J7" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="8">
@@ -7672,7 +7622,7 @@
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="9">
@@ -7704,7 +7654,7 @@
         <v/>
       </c>
       <c r="J9" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="10">
@@ -7736,7 +7686,7 @@
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="11">
@@ -7768,7 +7718,7 @@
         <v/>
       </c>
       <c r="J11" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="12">
@@ -7800,7 +7750,7 @@
         <v/>
       </c>
       <c r="J12" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="13">
@@ -7832,7 +7782,7 @@
         <v/>
       </c>
       <c r="J13" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="14">
@@ -7864,7 +7814,7 @@
         <v/>
       </c>
       <c r="J14" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="15">
@@ -7896,7 +7846,7 @@
         <v/>
       </c>
       <c r="J15" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="16">
@@ -7928,7 +7878,7 @@
         <v/>
       </c>
       <c r="J16" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="17">
@@ -7960,7 +7910,7 @@
         <v/>
       </c>
       <c r="J17" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="18">
@@ -7992,7 +7942,7 @@
         <v/>
       </c>
       <c r="J18" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="19">
@@ -8024,7 +7974,7 @@
         <v/>
       </c>
       <c r="J19" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="20">
@@ -8056,7 +8006,7 @@
         <v/>
       </c>
       <c r="J20" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="21">
@@ -8088,7 +8038,7 @@
         <v/>
       </c>
       <c r="J21" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="22">
@@ -8120,7 +8070,7 @@
         <v/>
       </c>
       <c r="J22" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="23">
@@ -8152,7 +8102,7 @@
         <v/>
       </c>
       <c r="J23" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="24">
@@ -8184,7 +8134,7 @@
         <v/>
       </c>
       <c r="J24" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="25">
@@ -8216,7 +8166,7 @@
         <v/>
       </c>
       <c r="J25" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="26">
@@ -8248,7 +8198,7 @@
         <v/>
       </c>
       <c r="J26" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="27">
@@ -8280,7 +8230,7 @@
         <v/>
       </c>
       <c r="J27" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="28">
@@ -8312,7 +8262,7 @@
         <v/>
       </c>
       <c r="J28" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="29">
@@ -8344,7 +8294,7 @@
         <v/>
       </c>
       <c r="J29" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="30">
@@ -8376,7 +8326,7 @@
         <v/>
       </c>
       <c r="J30" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="31">
@@ -8408,7 +8358,7 @@
         <v/>
       </c>
       <c r="J31" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="32">
@@ -8440,7 +8390,7 @@
         <v/>
       </c>
       <c r="J32" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="33">
@@ -8472,7 +8422,7 @@
         <v/>
       </c>
       <c r="J33" s="5" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
     <row r="34">
@@ -8504,7 +8454,7 @@
         <v/>
       </c>
       <c r="J34" s="4" t="str">
-        <v>hwOnv7hS8qk</v>
+        <v>YWS6v47vx3d</v>
       </c>
     </row>
   </sheetData>
@@ -11068,7 +11018,7 @@
         <v>JfUFrG8f5y3</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>LINE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C82" s="4" t="str">
         <v>EIR - Average Age in Months at Visit</v>
@@ -11088,7 +11038,7 @@
         <v>UqRvy4NmzNp</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>PIE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C83" s="5" t="str">
         <v>EIR - Age at Enrollment in Weeks</v>
@@ -11128,7 +11078,7 @@
         <v>kVCOyNHLaUt</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>PIE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C85" s="5" t="str">
         <v>EIR - Age at Visit in Weeks</v>
@@ -11248,7 +11198,7 @@
         <v>WQrf6A8mmWw</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>LINE</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C91" s="5" t="str">
         <v>EIR - Average Age in Months at Enrollment</v>
@@ -11368,7 +11318,7 @@
         <v>TMlhIhRKfYP</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C97" s="5" t="str">
         <v>EIR - RV Doses given last 12 months</v>
@@ -11388,7 +11338,7 @@
         <v>UbxJVBGU7i4</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C98" s="4" t="str">
         <v>EIR - Penta Doses given last 12 months</v>
@@ -11428,7 +11378,7 @@
         <v>xcXSylUsMgi</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C100" s="4" t="str">
         <v>EIR - PCV Doses given last 12 months</v>
@@ -11468,7 +11418,7 @@
         <v>kWbzSfOYYm8</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C102" s="4" t="str">
         <v>EIR - OPV and IPV Doses given last 12 months</v>
@@ -12790,19 +12740,19 @@
         <v>s1VrkziIbq4</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Highest</v>
+        <v>Invalid</v>
       </c>
       <c r="D2" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="4" t="str">
         <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>eaY4IVBuwM1</v>
+        <v>sP4oPVfcyUM</v>
       </c>
     </row>
     <row r="3">
@@ -12813,19 +12763,19 @@
         <v>s1VrkziIbq4</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Mid</v>
+        <v>Low</v>
       </c>
       <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>70</v>
       </c>
-      <c r="E3" s="5">
-        <v>80</v>
-      </c>
       <c r="F3" s="5" t="str">
         <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>F8wvZmpMbVK</v>
+        <v>lGyKnHfmwHB</v>
       </c>
     </row>
     <row r="4">
@@ -12836,19 +12786,19 @@
         <v>s1VrkziIbq4</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Invalid</v>
+        <v>Highest</v>
       </c>
       <c r="D4" s="4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="E4" s="4">
-        <v>1000</v>
-      </c>
       <c r="F4" s="4" t="str">
         <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>sP4oPVfcyUM</v>
+        <v>eaY4IVBuwM1</v>
       </c>
     </row>
     <row r="5">
@@ -12859,19 +12809,19 @@
         <v>s1VrkziIbq4</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Low</v>
+        <v>Mid</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="str">
         <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>lGyKnHfmwHB</v>
+        <v>F8wvZmpMbVK</v>
       </c>
     </row>
     <row r="6">
@@ -12905,19 +12855,19 @@
         <v>kUG1usm9ZBd</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Low</v>
+        <v>Negative</v>
       </c>
       <c r="D7" s="5">
-        <v>0.01</v>
+        <v>-100</v>
       </c>
       <c r="E7" s="5">
-        <v>10</v>
+        <v>-0.01</v>
       </c>
       <c r="F7" s="5" t="str">
         <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>GJ17LWNNkHt</v>
+        <v>zOBEfagpN2O</v>
       </c>
     </row>
     <row r="8">
@@ -12928,19 +12878,19 @@
         <v>kUG1usm9ZBd</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Negative</v>
+        <v>Low</v>
       </c>
       <c r="D8" s="4">
-        <v>-100</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4">
-        <v>-0.01</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="str">
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>zOBEfagpN2O</v>
+        <v>GJ17LWNNkHt</v>
       </c>
     </row>
     <row r="9">
@@ -13232,7 +13182,7 @@
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>IWp9dQGM0bS</v>
+        <v>LPrZIVYQGUv</v>
       </c>
     </row>
   </sheetData>
@@ -18460,14 +18410,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
-    <col min="3" max="3" width="170.7109375" customWidth="1"/>
+    <col min="3" max="3" width="168.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -18491,13 +18441,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>DXwDOgINslR</v>
+        <v>FTcVr8mwyjT</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Allergies : Top Bar String</v>
+        <v>Allergic reaction for Measles (mcv)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Allergic reactions, show on top bar</v>
+        <v>If the child has previously allergic reaction, but is HIV negative or on ART</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
@@ -18508,13 +18458,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>ENfKmr2Zvbg</v>
+        <v>DXwDOgINslR</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Assign age at visit string days</v>
+        <v>Allergies : Top Bar String</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Format and assign age at visit string in days - Assign age at visit string days</v>
+        <v>Allergic reactions, show on top bar</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
@@ -18525,13 +18475,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>tiPRf5vCIu3</v>
+        <v>ENfKmr2Zvbg</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Assign age at visit string months</v>
+        <v>Assign age at visit string days</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Format and assign age string in months - Assign age at visit string months</v>
+        <v>Format and assign age at visit string in days - Assign age at visit string days</v>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
@@ -18542,13 +18492,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>uoKmVxxPPue</v>
+        <v>tiPRf5vCIu3</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Assign age at visit string weeks</v>
+        <v>Assign age at visit string months</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Format and assign age string in weeks - Assign age at visit string weeks</v>
+        <v>Format and assign age string in months - Assign age at visit string months</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
@@ -18559,13 +18509,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>QuUmRX1NcyR</v>
+        <v>uoKmVxxPPue</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Assign age at visit string years</v>
+        <v>Assign age at visit string weeks</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Format and assign age string in years- Assign age at visit string years</v>
+        <v>Format and assign age string in weeks - Assign age at visit string weeks</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
@@ -18576,13 +18526,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>rhispzm1091</v>
+        <v>QuUmRX1NcyR</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Assign age string days</v>
+        <v>Assign age at visit string years</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Format and assign age string in days - Assign age string days</v>
+        <v>Format and assign age string in years- Assign age at visit string years</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -18593,13 +18543,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>rhispzm1093</v>
+        <v>rhispzm1091</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Assign age string months</v>
+        <v>Assign age string days</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Format and assign age string in months - Assign age string months</v>
+        <v>Format and assign age string in days - Assign age string days</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
@@ -18610,13 +18560,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>rhispzm1092</v>
+        <v>rhispzm1093</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Assign age string weeks</v>
+        <v>Assign age string months</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Format and assign age string in weeks - Assign age string weeks</v>
+        <v>Format and assign age string in months - Assign age string months</v>
       </c>
       <c r="D9" s="5" t="str">
         <v/>
@@ -18627,13 +18577,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>s5f5KTeOdQB</v>
+        <v>rhispzm1092</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Assign age string years</v>
+        <v>Assign age string weeks</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Format and assign age string in years- Assign age string years</v>
+        <v>Format and assign age string in weeks - Assign age string weeks</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -18644,13 +18594,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>a7jmspscbLK</v>
+        <v>s5f5KTeOdQB</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Assign Anaphylaxis history to new events</v>
+        <v>Assign age string years</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>Format and assign age string in years- Assign age string years</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
@@ -18661,10 +18611,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>CK8NQyxjtY7</v>
+        <v>a7jmspscbLK</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Assign HIV Status to new events</v>
+        <v>Assign Anaphylaxis history to new events</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
@@ -18678,13 +18628,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>lgVZ2zRha9I</v>
+        <v>CK8NQyxjtY7</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Block answers to previously provided doses</v>
+        <v>Assign HIV Status to new events</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>When the schedule is unlocked, show an error a dose was marked "yes" or "no" and was previously provided</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
         <v/>
@@ -18695,13 +18645,13 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Oge4CziQHI1</v>
+        <v>lgVZ2zRha9I</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Full Schedule Immunization section unlocked - Record earlier date</v>
+        <v>Block answers to previously provided doses</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>When the schedule is unlocked, show an error a dose was marked "yes" or "no" and was previously provided</v>
       </c>
       <c r="D14" s="4" t="str">
         <v/>
@@ -18712,10 +18662,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Yqb1Hg9d9Fe</v>
+        <v>Oge4CziQHI1</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Full Schedule Immunization section unlocked - Record event date</v>
+        <v>Full Schedule Immunization section unlocked - Record earlier date</v>
       </c>
       <c r="C15" s="5" t="str">
         <v/>
@@ -18729,10 +18679,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>edNPUMidQDl</v>
+        <v>Yqb1Hg9d9Fe</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Full Schedule Immunization section unlocked - Show earlier date</v>
+        <v>Full Schedule Immunization section unlocked - Record event date</v>
       </c>
       <c r="C16" s="4" t="str">
         <v/>
@@ -18746,10 +18696,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>Xz4TSKTXuPN</v>
+        <v>edNPUMidQDl</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Full Schedule Immunization section unlocked - Show event date</v>
+        <v>Full Schedule Immunization section unlocked - Show earlier date</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
@@ -18763,13 +18713,13 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>fgfkuiMIJho</v>
+        <v>Xz4TSKTXuPN</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide BCG 0.05</v>
+        <v>Full Schedule Immunization section unlocked - Show event date</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Hide BCG if ever given</v>
+        <v/>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -18780,13 +18730,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>oZK5I4IhxGW</v>
+        <v>fgfkuiMIJho</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Hide BCG 0.1</v>
+        <v>Hide BCG 0.05</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Hide if BCG 0.1 ever given, or BCG 0.5 not given or the age is less than 12 months</v>
+        <v>Hide BCG if ever given</v>
       </c>
       <c r="D19" s="5" t="str">
         <v/>
@@ -18797,13 +18747,13 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>V21V4l5g7ZU</v>
+        <v>oZK5I4IhxGW</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Hide BCG not given</v>
+        <v>Hide BCG 0.1</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Hide BCG not given in case all the BCG dataelements are hidden, OR if BCG was administered in THIS visit</v>
+        <v>Hide if BCG 0.1 ever given, or BCG 0.5 not given or the age is less than 12 months</v>
       </c>
       <c r="D20" s="4" t="str">
         <v/>
@@ -18814,13 +18764,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>eqzgEnW1NRz</v>
+        <v>V21V4l5g7ZU</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide birth certificate delivered to parents if registration not done</v>
+        <v>Hide BCG not given</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>Hide BCG not given in case all the BCG dataelements are hidden, OR if BCG was administered in THIS visit</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -18831,10 +18781,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>wgGPtmjN25L</v>
+        <v>eqzgEnW1NRz</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Hide birth notification sent to CRVS</v>
+        <v>Hide birth certificate delivered to parents if registration not done</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -18848,13 +18798,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>C9se5i2C0HL</v>
+        <v>wgGPtmjN25L</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Hide birth registration date</v>
+        <v>Hide birth notification sent to CRVS</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Birth not notified in current event/when birth notified in previous event</v>
+        <v/>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -18865,13 +18815,13 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>rhispzm1029</v>
+        <v>C9se5i2C0HL</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Hide DPT not given</v>
+        <v>Hide birth registration date</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Hide DPT not given in case all the DPT dataelements is hidden, OR if DPT was administered in THIS visit.</v>
+        <v>Birth not notified in current event/when birth notified in previous event</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
@@ -18882,13 +18832,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>rhispzm1023</v>
+        <v>rhispzm1029</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Hide DPT1</v>
+        <v>Hide DPT not given</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Hide DPT1 if ever given, or age is less than 6 weeks - Hide DPT1. (#{dpt1prev}=='1' || #{dpt1prev}==true || #{dpt1prev}==1  ||  #{ageWeeks} &lt; 6) &amp;&amp; !#{ShowAll_Unlocked}</v>
+        <v>Hide DPT not given in case all the DPT dataelements is hidden, OR if DPT was administered in THIS visit.</v>
       </c>
       <c r="D25" s="5" t="str">
         <v/>
@@ -18899,13 +18849,13 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>rhispzm1025</v>
+        <v>rhispzm1023</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hide DPT2</v>
+        <v>Hide DPT1</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Hide DPT2 if ever given, or if there is not more than 4 weeks since you got DPT1 - Hide DPT2</v>
+        <v>Hide DPT1 if ever given, or age is less than 6 weeks - Hide DPT1. (#{dpt1prev}=='1' || #{dpt1prev}==true || #{dpt1prev}==1 || #{ageWeeks} &lt; 6) &amp;&amp; !#{ShowAll_Unlocked}</v>
       </c>
       <c r="D26" s="4" t="str">
         <v/>
@@ -18916,13 +18866,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>rhispzm1027</v>
+        <v>rhispzm1025</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Hide DPT3</v>
+        <v>Hide DPT2</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Hide DPT3 if ever given, or if there is not more than 4 weeks since you got DPT2 - Hide DPT3</v>
+        <v>Hide DPT2 if ever given, or if there is not more than 4 weeks since you got DPT1 - Hide DPT2</v>
       </c>
       <c r="D27" s="5" t="str">
         <v/>
@@ -18933,13 +18883,13 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Y97RJNN4nWj</v>
+        <v>rhispzm1027</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Hide explanation for showing all non routine doses</v>
+        <v>Hide DPT3</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v/>
+        <v>Hide DPT3 if ever given, or if there is not more than 4 weeks since you got DPT2 - Hide DPT3</v>
       </c>
       <c r="D28" s="4" t="str">
         <v/>
@@ -18950,10 +18900,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>kL3y4h1576H</v>
+        <v>Y97RJNN4nWj</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Hide explanation for showing all routine doses</v>
+        <v>Hide explanation for showing all non routine doses</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -18967,10 +18917,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>DS0kVJznfUh</v>
+        <v>kL3y4h1576H</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Hide facility of birth unless birth was at facility or hospital</v>
+        <v>Hide explanation for showing all routine doses</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -18984,13 +18934,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>lygpxh9ChxA</v>
+        <v>DS0kVJznfUh</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Hide Hepatitis B1</v>
+        <v>Hide facility of birth unless birth was at facility or hospital</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Hide HepB-1</v>
+        <v/>
       </c>
       <c r="D31" s="5" t="str">
         <v/>
@@ -19001,13 +18951,13 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>bAqe1ZS9rfZ</v>
+        <v>lygpxh9ChxA</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Hide HepB not given</v>
+        <v>Hide Hepatitis B1</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Hide HepB not given in case all the HepB dataelements are hidden, OR if HepB was administered in THIS visit</v>
+        <v>Hide HepB-1</v>
       </c>
       <c r="D32" s="4" t="str">
         <v/>
@@ -19018,13 +18968,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>VmtbjRaFw3t</v>
+        <v>bAqe1ZS9rfZ</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Hide IPV not given</v>
+        <v>Hide HepB not given</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Hide IPV not given in case all the IPV dataelements is hidden, OR if IPV was administered in THIS visit</v>
+        <v>Hide HepB not given in case all the HepB dataelements are hidden, OR if HepB was administered in THIS visit</v>
       </c>
       <c r="D33" s="5" t="str">
         <v/>
@@ -19035,13 +18985,13 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>ySvnHRSUchi</v>
+        <v>VmtbjRaFw3t</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Hide IPV1</v>
+        <v>Hide IPV not given</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Hide IPV1 if ever given, or age is less than 14 weeks</v>
+        <v>Hide IPV not given in case all the IPV dataelements is hidden, OR if IPV was administered in THIS visit</v>
       </c>
       <c r="D34" s="4" t="str">
         <v/>
@@ -19052,13 +19002,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>rhispzm1049</v>
+        <v>ySvnHRSUchi</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Hide Measles not given</v>
+        <v>Hide IPV1</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Hide measles not given in case all the measles dataelements is hidden, OR if measles was administered in THIS visit</v>
+        <v>Hide IPV1 if ever given, or age is less than 14 weeks</v>
       </c>
       <c r="D35" s="5" t="str">
         <v/>
@@ -19069,13 +19019,13 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>rhispzm1045</v>
+        <v>rhispzm1049</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Hide measles1</v>
+        <v>Hide Measles not given</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Hide measles1 if ever given, or age is less than 9 months - Hide measles1</v>
+        <v>Hide measles not given in case all the measles dataelements is hidden, OR if measles was administered in THIS visit</v>
       </c>
       <c r="D36" s="4" t="str">
         <v/>
@@ -19086,13 +19036,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>rhispzm1047</v>
+        <v>rhispzm1045</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Hide measles2</v>
+        <v>Hide measles1</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Hide measles2 if ever given, or age is less than 15 months or measles 1 not given - Hide measles2</v>
+        <v>Hide measles1 if ever given, or age is less than 9 months - Hide measles1</v>
       </c>
       <c r="D37" s="5" t="str">
         <v/>
@@ -19103,13 +19053,13 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>jQ62abdeLxL</v>
+        <v>rhispzm1047</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Hide Non Routine Immunization section</v>
+        <v>Hide measles2</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v/>
+        <v>Hide measles2 if ever given, or age is less than 15 months or measles 1 not given - Hide measles2</v>
       </c>
       <c r="D38" s="4" t="str">
         <v/>
@@ -19120,10 +19070,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>DdBr32736GJ</v>
+        <v>jQ62abdeLxL</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Hide notification section when birth certificate received</v>
+        <v>Hide Non Routine Immunization section</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -19137,13 +19087,13 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>rhispzm1021</v>
+        <v>DdBr32736GJ</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Hide OPV not given</v>
+        <v>Hide notification section when birth certificate received</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Hide OPV not given in case all the OPV dataelements is hidden, OR if OPV was administered in THIS visit.</v>
+        <v/>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
@@ -19154,13 +19104,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>rhispzm1010</v>
+        <v>rhispzm1021</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Hide OPV0</v>
+        <v>Hide OPV not given</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Hide OPV0 if ever given, or baby is older than 13 days at the visit - Hide OPV0</v>
+        <v>Hide OPV not given in case all the OPV dataelements is hidden, OR if OPV was administered in THIS visit.</v>
       </c>
       <c r="D41" s="5" t="str">
         <v/>
@@ -19171,13 +19121,13 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>rhispzm1012</v>
+        <v>rhispzm1010</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Hide OPV1</v>
+        <v>Hide OPV0</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Hide OPV1 if ever given, or age is less than 6 weeks - Hide OPV1</v>
+        <v>Hide OPV0 if ever given, or baby is older than 13 days at the visit - Hide OPV0</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
@@ -19188,13 +19138,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>rhispzm1014</v>
+        <v>rhispzm1012</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Hide OPV2</v>
+        <v>Hide OPV1</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Hide OPV2 if ever given, or if there is not more than 4 weeks since you got OPV1 - Hide OPV2</v>
+        <v>Hide OPV1 if ever given, or age is less than 6 weeks - Hide OPV1</v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
@@ -19205,13 +19155,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>rhispzm1016</v>
+        <v>rhispzm1014</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Hide OPV3</v>
+        <v>Hide OPV2</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Hide OPV3 if ever given, or if there is not more than 4 weeks since you got OPV2 - Hide OPV3</v>
+        <v>Hide OPV2 if ever given, or if there is not more than 4 weeks since you got OPV1 - Hide OPV2</v>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -19222,13 +19172,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>rhispzm1018</v>
+        <v>rhispzm1016</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Hide OPV4</v>
+        <v>Hide OPV3</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Hide OPV4 if ever given, or the age is less than 9 months, or if opv3 is not given, or if opv0 IS given. - Hide OPV4</v>
+        <v>Hide OPV3 if ever given, or if there is not more than 4 weeks since you got OPV2 - Hide OPV3</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -19239,13 +19189,13 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>rhispzm1037</v>
+        <v>rhispzm1018</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Hide PCV not given</v>
+        <v>Hide OPV4</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Hide PCV not given in case all the PCV dataelements is hidden, OR if PCV was administered in THIS visit.</v>
+        <v>Hide OPV4 if ever given, or the age is less than 9 months, or if opv3 is not given, or if opv0 IS given. - Hide OPV4</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -19256,13 +19206,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>rhispzm1031</v>
+        <v>rhispzm1037</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Hide PCV1</v>
+        <v>Hide PCV not given</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Hide PCV1 if ever given, or age is less than 6 weeks - Hide PCV1</v>
+        <v>Hide PCV not given in case all the PCV dataelements is hidden, OR if PCV was administered in THIS visit.</v>
       </c>
       <c r="D47" s="5" t="str">
         <v/>
@@ -19273,13 +19223,13 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>rhispzm1033</v>
+        <v>rhispzm1031</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Hide PCV2</v>
+        <v>Hide PCV1</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Hide PCV2 if ever given, or if there is not more than 4 weeks since you got PCV1 - Hide PCV2</v>
+        <v>Hide PCV1 if ever given, or age is less than 6 weeks - Hide PCV1</v>
       </c>
       <c r="D48" s="4" t="str">
         <v/>
@@ -19290,13 +19240,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>rhispzm1035</v>
+        <v>rhispzm1033</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Hide PCV3</v>
+        <v>Hide PCV2</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Hide PCV3 if ever given, or if there is not more than 4 weeks since you got PCV2 - Hide PCV3</v>
+        <v>Hide PCV2 if ever given, or if there is not more than 4 weeks since you got PCV1 - Hide PCV2</v>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -19307,13 +19257,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>rNMBwrwoKKf</v>
+        <v>rhispzm1035</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Hide Rubella not given</v>
+        <v>Hide PCV3</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Hide Rubella not given in case all the measles dataelements is hidden, OR if rubella was administered in THIS visit</v>
+        <v>Hide PCV3 if ever given, or if there is not more than 4 weeks since you got PCV2 - Hide PCV3</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -19324,13 +19274,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>W59vHRWiMLj</v>
+        <v>rNMBwrwoKKf</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Hide rubella1</v>
+        <v>Hide Rubella not given</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Hide rubella1 if ever given, or age is less than 9 months</v>
+        <v>Hide Rubella not given in case all the measles dataelements is hidden, OR if rubella was administered in THIS visit</v>
       </c>
       <c r="D51" s="5" t="str">
         <v/>
@@ -19341,13 +19291,13 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>rhispzm1043</v>
+        <v>W59vHRWiMLj</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Hide RV not given</v>
+        <v>Hide rubella1</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Hide RV not given in case all the RV dataelements is hidden, OR if RV was administered in THIS visit</v>
+        <v>Hide rubella1 if ever given, or age is less than 9 months</v>
       </c>
       <c r="D52" s="4" t="str">
         <v/>
@@ -19358,13 +19308,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>rhispzm1039</v>
+        <v>rhispzm1043</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Hide RV1</v>
+        <v>Hide RV not given</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Hide RV1 if ever given, or age is less than 6 weeks - Hide RV1</v>
+        <v>Hide RV not given in case all the RV dataelements is hidden, OR if RV was administered in THIS visit</v>
       </c>
       <c r="D53" s="5" t="str">
         <v/>
@@ -19375,13 +19325,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>rhispzm1041</v>
+        <v>rhispzm1039</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Hide RV2</v>
+        <v>Hide RV1</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Hide RV2 if ever given, or if there is not more than 4 weeks since you got RV1 - Hide RV2</v>
+        <v>Hide RV1 if ever given, or age is less than 6 weeks - Hide RV1</v>
       </c>
       <c r="D54" s="4" t="str">
         <v/>
@@ -19392,13 +19342,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>l8qFHtufK8l</v>
+        <v>rhispzm1041</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Hide Update HIV and Anaphylaxis history</v>
+        <v>Hide RV2</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v/>
+        <v>Hide RV2 if ever given, or if there is not more than 4 weeks since you got RV1 - Hide RV2</v>
       </c>
       <c r="D55" s="5" t="str">
         <v/>
@@ -19409,10 +19359,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Zy3o9HFAtXB</v>
+        <v>l8qFHtufK8l</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Hide vaccine site when given at public</v>
+        <v>Hide Update HIV and Anaphylaxis history</v>
       </c>
       <c r="C56" s="4" t="str">
         <v/>
@@ -19460,13 +19410,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>WFqWHVExD34</v>
+        <v>sFGeNJX7IB4</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>HIV Positive and not on ART for MCV 2 dose</v>
+        <v>HIV Positive and not on ART and allergic reaction for Measles (mcv)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>If the child is HIV positive and not on ART</v>
+        <v>If the child is HIV positive and not on ART and also has previously allergic reaction</v>
       </c>
       <c r="D59" s="5" t="str">
         <v/>
@@ -19477,10 +19427,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>jgrz4ixypZd</v>
+        <v>WFqWHVExD34</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>HIV Positive and not on ART for PCV 3</v>
+        <v>HIV Positive and not on ART for Measles (mcv) 2 dose</v>
       </c>
       <c r="C60" s="4" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19511,10 +19461,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>pknU7h6lkxm</v>
+        <v>jgrz4ixypZd</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>HIV Positive and not on ART for Rotarix 2</v>
+        <v>HIV Positive for PCV 3</v>
       </c>
       <c r="C62" s="4" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19528,13 +19478,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>mdSthJ4r9x0</v>
+        <v>pknU7h6lkxm</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>Measles0 warning</v>
+        <v>HIV Positive not on ART, or prior severe reaction, for Rotarix (RV)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v/>
+        <v>RV If the child is HIV positive and not on ART. Or, if there is a severe reaction to the first vaccine.</v>
       </c>
       <c r="D63" s="5" t="str">
         <v/>
@@ -19545,10 +19495,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>bvKyAHQU2gT</v>
+        <v>mdSthJ4r9x0</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>Name : Top Bar String</v>
+        <v>Measles0 warning</v>
       </c>
       <c r="C64" s="4" t="str">
         <v/>
@@ -19562,10 +19512,10 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>wJxjnrj1cb2</v>
+        <v>bvKyAHQU2gT</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>Non Routine Immunization section unlocked - Record earlier date</v>
+        <v>Name : Top Bar String</v>
       </c>
       <c r="C65" s="5" t="str">
         <v/>
@@ -19579,10 +19529,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>Gpdjp8QrPYK</v>
+        <v>wJxjnrj1cb2</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Non Routine Immunization section unlocked - Record event date</v>
+        <v>Non Routine Immunization section unlocked - Record earlier date</v>
       </c>
       <c r="C66" s="4" t="str">
         <v/>
@@ -19596,10 +19546,10 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>cqNYxX1JT2n</v>
+        <v>Gpdjp8QrPYK</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>Non Routine Immunization section unlocked - Show earlier date</v>
+        <v>Non Routine Immunization section unlocked - Record event date</v>
       </c>
       <c r="C67" s="5" t="str">
         <v/>
@@ -19613,10 +19563,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>fjGaQUAWMoO</v>
+        <v>cqNYxX1JT2n</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Non Routine Immunization section unlocked - Show event date</v>
+        <v>Non Routine Immunization section unlocked - Show earlier date</v>
       </c>
       <c r="C68" s="4" t="str">
         <v/>
@@ -19630,13 +19580,13 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>rhispzm1006</v>
+        <v>fjGaQUAWMoO</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>Populate age at visit</v>
+        <v>Non Routine Immunization section unlocked - Show event date</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Populate ages - Populate ages</v>
+        <v/>
       </c>
       <c r="D69" s="5" t="str">
         <v/>
@@ -19647,13 +19597,13 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>rhispzm1088</v>
+        <v>rhispzm1006</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Populate current age</v>
+        <v>Populate age at visit</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Populate current age - Populate current age</v>
+        <v>Populate ages - Populate ages</v>
       </c>
       <c r="D70" s="4" t="str">
         <v/>
@@ -19664,13 +19614,13 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>vFVrJnEvnt1</v>
+        <v>rhispzm1088</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>Risk: Multiple detected</v>
+        <v>Populate current age</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v/>
+        <v>Populate current age - Populate current age</v>
       </c>
       <c r="D71" s="5" t="str">
         <v/>
@@ -19681,13 +19631,13 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>Mxx1YuuJ0Bw</v>
+        <v>vFVrJnEvnt1</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>Show age at visit String</v>
+        <v>Risk: Multiple detected</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Show formatted age String as key-value-pair - Show age at visit String</v>
+        <v/>
       </c>
       <c r="D72" s="4" t="str">
         <v/>
@@ -19698,13 +19648,13 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>rhispzm1094</v>
+        <v>Mxx1YuuJ0Bw</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>Show age String</v>
+        <v>Show age at visit String</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Show formatted age String as key-value-pair - Show age String</v>
+        <v>Show formatted age String as key-value-pair - Show age at visit String</v>
       </c>
       <c r="D73" s="5" t="str">
         <v/>
@@ -19715,13 +19665,13 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>afNhHC1QaMX</v>
+        <v>rhispzm1094</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>Show all immunization questions if explanation longer than 5 characters</v>
+        <v>Show age String</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>d2:length(#{ShowAll_Explain})&gt;4</v>
+        <v>Show formatted age String as key-value-pair - Show age String</v>
       </c>
       <c r="D74" s="4" t="str">
         <v/>
@@ -19732,13 +19682,13 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>lqwnzer7lIc</v>
+        <v>afNhHC1QaMX</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>Show warning for rubella regarding blood transfusion</v>
+        <v>Show all immunization questions if explanation longer than 5 characters</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v/>
+        <v>d2:length(#{ShowAll_Explain})&gt;4</v>
       </c>
       <c r="D75" s="5" t="str">
         <v/>
@@ -19749,10 +19699,10 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>cfUaApwYRNO</v>
+        <v>lqwnzer7lIc</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>SMS: Send notification when birth notified to CRVS</v>
+        <v>Show warning for rubella regarding blood transfusion</v>
       </c>
       <c r="C76" s="4" t="str">
         <v/>
@@ -19766,10 +19716,10 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>rhtX1D73UON</v>
+        <v>cfUaApwYRNO</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>SMS: Send notification when certificate not delivered</v>
+        <v>SMS: Send notification when birth notified to CRVS</v>
       </c>
       <c r="C77" s="5" t="str">
         <v/>
@@ -19783,10 +19733,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>uuJGP7gTjaV</v>
+        <v>rhtX1D73UON</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>System: Send notification when birth notified to CRVS</v>
+        <v>SMS: Send notification when certificate not delivered</v>
       </c>
       <c r="C78" s="4" t="str">
         <v/>
@@ -19800,10 +19750,10 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>zvdRyUltPDG</v>
+        <v>uuJGP7gTjaV</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>System: Send notification when certificate not delivered</v>
+        <v>System: Send notification when birth notified to CRVS</v>
       </c>
       <c r="C79" s="5" t="str">
         <v/>
@@ -19817,10 +19767,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>kAyfuoOhAmq</v>
+        <v>zvdRyUltPDG</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>System: Send notification when certificate received</v>
+        <v>System: Send notification when certificate not delivered</v>
       </c>
       <c r="C80" s="4" t="str">
         <v/>
@@ -19834,13 +19784,13 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>sC04uK24k6u</v>
+        <v>kAyfuoOhAmq</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>Use show/hides for immunizations if explanation less than 5 characters</v>
+        <v>System: Send notification when certificate received</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>d2:length(#{ShowAll_Explain})&lt;4  || !d2:hasValue('ShowAll_Yes')</v>
+        <v/>
       </c>
       <c r="D81" s="5" t="str">
         <v/>
@@ -19851,13 +19801,13 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>CVo1uhAyGLU</v>
+        <v>sC04uK24k6u</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>Val: Gestational Age at birth 0-28 weeks or 42-49 weeks (soft)</v>
+        <v>Use show/hides for immunizations if explanation less than 5 characters</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v/>
+        <v>d2:length(#{ShowAll_Explain})&lt;4 || !d2:hasValue('ShowAll_Yes')</v>
       </c>
       <c r="D82" s="4" t="str">
         <v/>
@@ -19868,10 +19818,10 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>HIcTQC9O2lE</v>
+        <v>CVo1uhAyGLU</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>Val: Gestational Age at birth &gt;= 50 w (hard)</v>
+        <v>Val: Gestational Age at birth 0-28 weeks or 42-49 weeks (soft)</v>
       </c>
       <c r="C83" s="5" t="str">
         <v/>
@@ -19885,10 +19835,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>U3FeVKEw1Sr</v>
+        <v>HIcTQC9O2lE</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>Val: High birth weight &gt; 10000g</v>
+        <v>Val: Gestational Age at birth &gt;= 50 w (hard)</v>
       </c>
       <c r="C84" s="4" t="str">
         <v/>
@@ -19902,10 +19852,10 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>MRn6asFPQlJ</v>
+        <v>U3FeVKEw1Sr</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>Val: Low birth weight &lt; 2500g</v>
+        <v>Val: High birth weight &gt; 10000g</v>
       </c>
       <c r="C85" s="5" t="str">
         <v/>
@@ -19919,10 +19869,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>Zo0j0SwKFd1</v>
+        <v>MRn6asFPQlJ</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>Warning for High temperature_PCV 3 dose</v>
+        <v>Val: Low birth weight &lt; 2500g</v>
       </c>
       <c r="C86" s="4" t="str">
         <v/>
@@ -19936,10 +19886,10 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>Fvum9bZNqjD</v>
+        <v>Zo0j0SwKFd1</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>Warning for Rotarix 2 Vaccine if the temperature is high</v>
+        <v>Warning for High temperature_PCV</v>
       </c>
       <c r="C87" s="5" t="str">
         <v/>
@@ -19953,13 +19903,13 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>VkQRPxH8fzg</v>
+        <v>Fvum9bZNqjD</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>Warning: HIV Positive and not on ART for BCG 0.05ml vaccine</v>
+        <v>Warning for Rotarix (RV) Vaccine if the temperature is high</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>If the child is HIV positive and not on ART</v>
+        <v>If high temp. Superceded by warnings if there is HIV+ and not on ART, or if previous reaction</v>
       </c>
       <c r="D88" s="4" t="str">
         <v/>
@@ -19970,10 +19920,10 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>cafTxp9WWUZ</v>
+        <v>VkQRPxH8fzg</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>Warning: HIV Positive and not on ART for BCG 0.1ml vaccine</v>
+        <v>Warning: HIV Positive and not on ART for BCG 0.05ml vaccine</v>
       </c>
       <c r="C89" s="5" t="str">
         <v>If the child is HIV positive and not on ART</v>
@@ -19982,6 +19932,23 @@
         <v/>
       </c>
       <c r="E89" s="5" t="str">
+        <v>SSLpOM0r1U7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>cafTxp9WWUZ</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>Warning: HIV Positive and not on ART for BCG 0.1ml vaccine</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>If the child is HIV positive and not on ART</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E90" s="4" t="str">
         <v>SSLpOM0r1U7</v>
       </c>
     </row>
